--- a/NMxTotalUsexAccuracy/data/NMxPositiveAccuracy_anova.xlsx
+++ b/NMxTotalUsexAccuracy/data/NMxPositiveAccuracy_anova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64CF576-E3CA-2E45-9368-CC631B333002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F90551-BE8B-DC44-9948-42DD9784C1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="460" windowWidth="16820" windowHeight="14760" xr2:uid="{79B66A3E-72FC-BE4A-89D9-CD830D2D4145}"/>
+    <workbookView xWindow="28300" yWindow="1300" windowWidth="22080" windowHeight="14780" xr2:uid="{79B66A3E-72FC-BE4A-89D9-CD830D2D4145}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>Subject</t>
   </si>
@@ -186,14 +186,20 @@
     <t>SVS</t>
   </si>
   <si>
-    <t>NM</t>
+    <t>NM_full</t>
+  </si>
+  <si>
+    <t>Total_Use</t>
+  </si>
+  <si>
+    <t>NM_vstri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +213,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -316,15 +328,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -333,6 +364,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,3841 +703,4337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31723B7A-45ED-944A-9BE0-99732653F64A}">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
+        <v>7.0149834110000002</v>
+      </c>
+      <c r="C2" s="13">
         <v>6.6323999999999996</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="3">
         <v>20</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="11">
+        <f>SUM(A2,B2,D2)</f>
+        <v>27.014983410999999</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>-6.6542000000000004E-2</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-0.127364</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.10792300000000001</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>5.0793999999999999E-2</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>3.8214999999999999E-2</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>1.4739E-2</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>-7.3726E-2</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>-5.9027999999999997E-2</v>
       </c>
-      <c r="M2">
-        <f>AVERAGE(E2,F2)</f>
+      <c r="O2">
+        <f t="shared" ref="O2:O33" si="0">AVERAGE(G2,H2)</f>
         <v>-9.6953000000000011E-2</v>
       </c>
-      <c r="N2">
-        <f>AVERAGE(K2,L2)</f>
+      <c r="P2">
+        <f>AVERAGE(M2,N2)</f>
         <v>-6.6376999999999992E-2</v>
       </c>
-      <c r="O2">
-        <f>AVERAGE(I2,J2)</f>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q33" si="1">AVERAGE(K2,L2)</f>
         <v>2.6477000000000001E-2</v>
       </c>
-      <c r="P2">
-        <f>AVERAGE(G2,H2)</f>
+      <c r="R2">
+        <f t="shared" ref="R2:R33" si="2">AVERAGE(I2,J2)</f>
         <v>7.9358499999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
+        <v>5.2837627459999998</v>
+      </c>
+      <c r="C3" s="1">
         <v>5.8707000000000003</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="3">
         <v>23</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E66" si="3">SUM(A3,B3,D3)</f>
+        <v>28.283762746000001</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>-4.4829000000000001E-2</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>-4.4685000000000002E-2</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>-8.5683999999999996E-2</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1.8766999999999999E-2</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>-1.5193999999999999E-2</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.14275299999999999</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>6.0252E-2</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>-2.3734000000000002E-2</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M66" si="0">AVERAGE(E3,F3)</f>
+      <c r="O3">
+        <f t="shared" si="0"/>
         <v>-4.4757000000000005E-2</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N66" si="1">AVERAGE(K3,L3)</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="4">AVERAGE(M3,N3)</f>
         <v>1.8258999999999997E-2</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O66" si="2">AVERAGE(I3,J3)</f>
+      <c r="Q3">
+        <f t="shared" si="1"/>
         <v>6.3779499999999989E-2</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P66" si="3">AVERAGE(G3,H3)</f>
+      <c r="R3">
+        <f t="shared" si="2"/>
         <v>-3.3458500000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="9">
+        <v>11.89285005</v>
+      </c>
+      <c r="C4" s="1">
         <v>10.6219</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="3">
         <v>26</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="11">
+        <f t="shared" si="3"/>
+        <v>37.89285005</v>
+      </c>
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>-9.4667000000000001E-2</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>-8.3731E-2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>-0.12708</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-6.7714999999999997E-2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>-6.8329000000000001E-2</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>-0.181476</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>5.9560000000000004E-3</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>-3.6502E-2</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <f t="shared" si="0"/>
         <v>-8.9199000000000001E-2</v>
       </c>
-      <c r="N4">
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>-1.5273E-2</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="1"/>
-        <v>-1.5273E-2</v>
-      </c>
-      <c r="O4">
+        <v>-0.1249025</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="2"/>
-        <v>-0.1249025</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="3"/>
         <v>-9.7397499999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="9">
+        <v>7.4700715549999996</v>
+      </c>
+      <c r="C5" s="1">
         <v>6.7069999999999999</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="3">
         <v>34</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="11">
+        <f t="shared" si="3"/>
+        <v>41.470071554999997</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>-7.8688999999999995E-2</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>2.7518000000000001E-2</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-5.7637000000000001E-2</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>8.6390000000000008E-3</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>-9.4317999999999999E-2</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>-7.2405999999999998E-2</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>5.5053999999999999E-2</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.10002</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <f t="shared" si="0"/>
         <v>-2.5585499999999997E-2</v>
       </c>
-      <c r="N5">
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>7.7536999999999995E-2</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="1"/>
-        <v>7.7536999999999995E-2</v>
-      </c>
-      <c r="O5">
+        <v>-8.3361999999999992E-2</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="2"/>
-        <v>-8.3361999999999992E-2</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="3"/>
         <v>-2.4499E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="9">
+        <v>9.8922949379999991</v>
+      </c>
+      <c r="C6" s="1">
         <v>9.8196999999999992</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="3">
         <v>21</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="11">
+        <f t="shared" si="3"/>
+        <v>30.892294937999999</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>-0.25829600000000003</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>-0.34565600000000002</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.194524</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.154333</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>9.1269000000000003E-2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.118052</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>8.7134000000000003E-2</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>3.9179999999999996E-3</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <f t="shared" si="0"/>
         <v>-0.30197600000000002</v>
       </c>
-      <c r="N6">
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>4.5526000000000004E-2</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="1"/>
-        <v>4.5526000000000004E-2</v>
-      </c>
-      <c r="O6">
+        <v>0.1046605</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="2"/>
-        <v>0.1046605</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="3"/>
         <v>0.17442849999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="9">
+        <v>10.03014694</v>
+      </c>
+      <c r="C7" s="1">
         <v>9.8634000000000004</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="3">
         <v>23</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="11">
+        <f t="shared" si="3"/>
+        <v>33.030146940000002</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>-0.16339500000000001</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>-0.192084</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>-7.0095000000000005E-2</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>-6.8348000000000006E-2</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>-0.10992200000000001</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>1.2394000000000001E-2</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>-0.102829</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>-9.2687000000000005E-2</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <f t="shared" si="0"/>
         <v>-0.17773949999999999</v>
       </c>
-      <c r="N7">
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>-9.7758000000000012E-2</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="1"/>
-        <v>-9.7758000000000012E-2</v>
-      </c>
-      <c r="O7">
+        <v>-4.8764000000000002E-2</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="2"/>
-        <v>-4.8764000000000002E-2</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
         <v>-6.9221500000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="9">
+        <v>6.3420774990000002</v>
+      </c>
+      <c r="C8" s="1">
         <v>6.4911000000000003</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="3">
         <v>23</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="11">
+        <f t="shared" si="3"/>
+        <v>29.342077498999998</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>-0.13142100000000001</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>4.6022E-2</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>-9.2638999999999999E-2</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>-7.9360000000000003E-3</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>-5.646E-3</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>3.0953000000000001E-2</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>-2.4506E-2</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>3.5227000000000001E-2</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <f t="shared" si="0"/>
         <v>-4.2699500000000001E-2</v>
       </c>
-      <c r="N8">
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>5.3605000000000007E-3</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="1"/>
-        <v>5.3605000000000007E-3</v>
-      </c>
-      <c r="O8">
+        <v>1.2653500000000002E-2</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="2"/>
-        <v>1.2653500000000002E-2</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
         <v>-5.0287499999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="9">
+        <v>4.6882489380000001</v>
+      </c>
+      <c r="C9" s="1">
         <v>3.8052999999999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="3">
         <v>20</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="11">
+        <f t="shared" si="3"/>
+        <v>24.688248938000001</v>
+      </c>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>8.3090999999999998E-2</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>-4.5204000000000001E-2</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>-3.4381000000000002E-2</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>-4.823E-3</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>-0.117303</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>-3.5751999999999999E-2</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>8.7328000000000003E-2</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>4.4574000000000003E-2</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <f t="shared" si="0"/>
         <v>1.8943499999999999E-2</v>
       </c>
-      <c r="N9">
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>6.595100000000001E-2</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="1"/>
-        <v>6.595100000000001E-2</v>
-      </c>
-      <c r="O9">
+        <v>-7.6527499999999998E-2</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="2"/>
-        <v>-7.6527499999999998E-2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
         <v>-1.9602000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="9">
+        <v>10.41813013</v>
+      </c>
+      <c r="C10" s="1">
         <v>8.9419000000000004</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="3">
         <v>19</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="11">
+        <f t="shared" si="3"/>
+        <v>29.418130130000002</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>4.9106999999999998E-2</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>-8.5933999999999996E-2</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>-3.4209999999999997E-2</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>-7.5482999999999995E-2</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>-0.20017199999999999</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>-9.4769000000000006E-2</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>8.7159999999999998E-3</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>6.5639000000000003E-2</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <f t="shared" si="0"/>
         <v>-1.8413499999999999E-2</v>
       </c>
-      <c r="N10">
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>3.7177500000000002E-2</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="1"/>
-        <v>3.7177500000000002E-2</v>
-      </c>
-      <c r="O10">
+        <v>-0.1474705</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="2"/>
-        <v>-0.1474705</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
         <v>-5.4846499999999992E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="9">
+        <v>8.2012861650000008</v>
+      </c>
+      <c r="C11" s="1">
         <v>7.8029000000000002</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="3">
         <v>18</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="11">
+        <f t="shared" si="3"/>
+        <v>26.201286164999999</v>
+      </c>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>-5.5462999999999998E-2</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>-6.019E-3</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>-1.6175999999999999E-2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>-4.3059E-2</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>-9.8692000000000002E-2</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>6.7863000000000007E-2</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>-0.31575900000000001</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>-0.15962899999999999</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <f t="shared" si="0"/>
         <v>-3.0740999999999997E-2</v>
       </c>
-      <c r="N11">
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>-0.23769400000000002</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="1"/>
-        <v>-0.23769400000000002</v>
-      </c>
-      <c r="O11">
+        <v>-1.5414499999999998E-2</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="2"/>
-        <v>-1.5414499999999998E-2</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
         <v>-2.9617499999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="9">
+        <v>11.849809</v>
+      </c>
+      <c r="C12" s="1">
         <v>9.8434000000000008</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="3">
         <v>21</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="11">
+        <f t="shared" si="3"/>
+        <v>32.849809</v>
+      </c>
+      <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>-0.13824</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>-0.33188800000000002</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>6.3053999999999999E-2</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>4.6105E-2</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.28608899999999998</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>6.7775000000000002E-2</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>-0.13494</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>-0.138872</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <f t="shared" si="0"/>
         <v>-0.235064</v>
       </c>
-      <c r="N12">
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>-0.136906</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="1"/>
-        <v>-0.136906</v>
-      </c>
-      <c r="O12">
+        <v>0.17693199999999998</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="2"/>
-        <v>0.17693199999999998</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
         <v>5.4579500000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="9">
+        <v>8.5473098879999991</v>
+      </c>
+      <c r="C13" s="1">
         <v>6.5369000000000002</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="3">
         <v>21</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="11">
+        <f t="shared" si="3"/>
+        <v>29.547309888000001</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>-0.38839600000000002</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>-0.15731800000000001</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>-0.33115699999999998</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>-0.25545400000000001</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>-0.234845</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>-0.13272600000000001</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>-0.28307199999999999</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>-0.17643600000000001</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <f t="shared" si="0"/>
         <v>-0.27285700000000002</v>
       </c>
-      <c r="N13">
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>-0.22975400000000001</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="1"/>
-        <v>-0.22975400000000001</v>
-      </c>
-      <c r="O13">
+        <v>-0.18378549999999999</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="2"/>
-        <v>-0.18378549999999999</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
         <v>-0.2933055</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="9">
+        <v>8.8874420109999992</v>
+      </c>
+      <c r="C14" s="1">
         <v>6.3827999999999996</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="3">
         <v>19</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="11">
+        <f t="shared" si="3"/>
+        <v>27.887442010999997</v>
+      </c>
+      <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>-0.11112</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>-5.3636000000000003E-2</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1.7904E-2</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>4.6669000000000002E-2</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>6.4426999999999998E-2</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>2.0008000000000001E-2</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>-2.4698999999999999E-2</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>5.0214000000000002E-2</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <f t="shared" si="0"/>
         <v>-8.2378000000000007E-2</v>
       </c>
-      <c r="N14">
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>1.2757500000000001E-2</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="1"/>
-        <v>1.2757500000000001E-2</v>
-      </c>
-      <c r="O14">
+        <v>4.2217499999999998E-2</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="2"/>
-        <v>4.2217499999999998E-2</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="3"/>
         <v>3.2286500000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="9">
+        <v>8.2229687370000004</v>
+      </c>
+      <c r="C15" s="1">
         <v>7.1338999999999997</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="3">
         <v>19</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="11">
+        <f t="shared" si="3"/>
+        <v>27.222968737000002</v>
+      </c>
+      <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>9.8320000000000005E-3</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.18918499999999999</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>3.1689000000000002E-2</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>8.5344000000000003E-2</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>1.7017999999999998E-2</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>-9.9944000000000005E-2</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>6.3926999999999998E-2</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>6.3673999999999994E-2</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <f t="shared" si="0"/>
         <v>9.95085E-2</v>
       </c>
-      <c r="N15">
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>6.3800499999999996E-2</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="1"/>
-        <v>6.3800499999999996E-2</v>
-      </c>
-      <c r="O15">
+        <v>-4.1463E-2</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="2"/>
-        <v>-4.1463E-2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="3"/>
         <v>5.8516499999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="9">
+        <v>9.3975206280000005</v>
+      </c>
+      <c r="C16" s="1">
         <v>9.2367000000000008</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="3">
         <v>21</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="11">
+        <f t="shared" si="3"/>
+        <v>30.397520628000002</v>
+      </c>
+      <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>-5.2725000000000001E-2</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>-3.0328999999999998E-2</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>9.1829999999999995E-2</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>4.2819000000000003E-2</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>3.5961E-2</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>9.8876000000000006E-2</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>-0.10734399999999999</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>-5.1285999999999998E-2</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <f t="shared" si="0"/>
         <v>-4.1527000000000001E-2</v>
       </c>
-      <c r="N16">
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>-7.9314999999999997E-2</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="1"/>
-        <v>-7.9314999999999997E-2</v>
-      </c>
-      <c r="O16">
+        <v>6.7418500000000006E-2</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="2"/>
-        <v>6.7418500000000006E-2</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="3"/>
         <v>6.7324499999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="9">
+        <v>8.2672692869999995</v>
+      </c>
+      <c r="C17" s="1">
         <v>7.0613999999999999</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="3">
         <v>18</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="11">
+        <f t="shared" si="3"/>
+        <v>26.267269286999998</v>
+      </c>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>-0.30178100000000002</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>-1.1540000000000001E-3</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>-5.3668E-2</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>-6.9585999999999995E-2</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>-0.26075799999999999</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>-9.4880999999999993E-2</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>-9.3715999999999994E-2</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>1.4598E-2</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <f t="shared" si="0"/>
         <v>-0.1514675</v>
       </c>
-      <c r="N17">
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>-3.9558999999999997E-2</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="1"/>
-        <v>-3.9558999999999997E-2</v>
-      </c>
-      <c r="O17">
+        <v>-0.17781949999999999</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="2"/>
-        <v>-0.17781949999999999</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
         <v>-6.1627000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="9">
+        <v>7.7223976429999999</v>
+      </c>
+      <c r="C18" s="1">
         <v>6.7188999999999997</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="3">
         <v>20</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="11">
+        <f t="shared" si="3"/>
+        <v>27.722397643000001</v>
+      </c>
+      <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>5.2864000000000001E-2</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>8.4306000000000006E-2</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>3.2371999999999998E-2</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>3.6924999999999999E-2</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>8.4360000000000008E-3</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>6.8989999999999996E-2</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>8.5816000000000003E-2</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <f t="shared" si="0"/>
         <v>6.8585000000000007E-2</v>
       </c>
-      <c r="N18">
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>7.7403E-2</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="1"/>
-        <v>7.7403E-2</v>
-      </c>
-      <c r="O18">
+        <v>2.6152999999999999E-2</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="2"/>
-        <v>2.6152999999999999E-2</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="3"/>
         <v>3.4648499999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="9">
+        <v>12.39948104</v>
+      </c>
+      <c r="C19" s="1">
         <v>9.7673000000000005</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="3">
         <v>21</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="11">
+        <f t="shared" si="3"/>
+        <v>33.399481039999998</v>
+      </c>
+      <c r="F19" s="2">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>-8.3401000000000003E-2</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>-3.5095000000000001E-2</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>9.8251000000000005E-2</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>0.15524299999999999</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.14959800000000001</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.27354899999999999</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>6.3425999999999996E-2</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>2.6165999999999998E-2</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <f t="shared" si="0"/>
         <v>-5.9248000000000002E-2</v>
       </c>
-      <c r="N19">
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>4.4795999999999996E-2</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="1"/>
-        <v>4.4795999999999996E-2</v>
-      </c>
-      <c r="O19">
+        <v>0.2115735</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="2"/>
-        <v>0.2115735</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="3"/>
         <v>0.126747</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="9">
+        <v>8.4076809709999996</v>
+      </c>
+      <c r="C20" s="1">
         <v>8.6026000000000007</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="3">
         <v>20</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="11">
+        <f t="shared" si="3"/>
+        <v>28.407680970999998</v>
+      </c>
+      <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>-5.6569999999999997E-3</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>2.7300999999999999E-2</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>-0.19381599999999999</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>-0.17955499999999999</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>-0.21440799999999999</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>-4.7932000000000002E-2</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>-6.2890000000000003E-3</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>-2.7833E-2</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <f t="shared" si="0"/>
         <v>1.0822E-2</v>
       </c>
-      <c r="N20">
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>-1.7061E-2</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="1"/>
-        <v>-1.7061E-2</v>
-      </c>
-      <c r="O20">
+        <v>-0.13117000000000001</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="2"/>
-        <v>-0.13117000000000001</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="3"/>
         <v>-0.1866855</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="9">
+        <v>8.5382332059999992</v>
+      </c>
+      <c r="C21" s="1">
         <v>7.6535000000000002</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="3">
         <v>19</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="11">
+        <f t="shared" si="3"/>
+        <v>27.538233206000001</v>
+      </c>
+      <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>0.14799699999999999</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>9.4934000000000004E-2</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>-3.8438E-2</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>-8.1141000000000005E-2</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>-0.18335099999999999</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>-4.718E-2</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>6.2327E-2</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>3.0948E-2</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <f t="shared" si="0"/>
         <v>0.1214655</v>
       </c>
-      <c r="N21">
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>4.6637499999999998E-2</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="1"/>
-        <v>4.6637499999999998E-2</v>
-      </c>
-      <c r="O21">
+        <v>-0.11526549999999999</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="2"/>
-        <v>-0.11526549999999999</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="3"/>
         <v>-5.9789500000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="9">
+        <v>9.5472100649999998</v>
+      </c>
+      <c r="C22" s="1">
         <v>7.0533000000000001</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="3">
         <v>19</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="11">
+        <f t="shared" si="3"/>
+        <v>28.547210065000002</v>
+      </c>
+      <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>-0.12661800000000001</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>-0.20003399999999999</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>-0.19656100000000001</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>-0.13891500000000001</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>-0.16670099999999999</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>-8.8109999999999994E-2</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>-0.19371099999999999</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>-7.0663000000000004E-2</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <f t="shared" si="0"/>
         <v>-0.163326</v>
       </c>
-      <c r="N22">
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>-0.132187</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="1"/>
-        <v>-0.132187</v>
-      </c>
-      <c r="O22">
+        <v>-0.1274055</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="2"/>
-        <v>-0.1274055</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="3"/>
         <v>-0.167738</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="9">
+        <v>5.6497598370000004</v>
+      </c>
+      <c r="C23" s="1">
         <v>5.4255000000000004</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="3">
         <v>20</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="11">
+        <f t="shared" si="3"/>
+        <v>25.649759837000001</v>
+      </c>
+      <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>-6.4061000000000007E-2</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>-7.7161999999999994E-2</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>5.3599000000000001E-2</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>-1.0194999999999999E-2</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>2.5676999999999998E-2</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>9.1490000000000002E-2</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>2.9855E-2</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>-1.7505E-2</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <f t="shared" si="0"/>
         <v>-7.0611499999999994E-2</v>
       </c>
-      <c r="N23">
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>6.1749999999999999E-3</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="1"/>
-        <v>6.1749999999999999E-3</v>
-      </c>
-      <c r="O23">
+        <v>5.8583499999999997E-2</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="2"/>
-        <v>5.8583499999999997E-2</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="3"/>
         <v>2.1701999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="9">
+        <v>9.2220832700000006</v>
+      </c>
+      <c r="C24" s="1">
         <v>7.1264000000000003</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="3">
         <v>19</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="11">
+        <f t="shared" si="3"/>
+        <v>28.222083269999999</v>
+      </c>
+      <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>-0.134769</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>-5.0312000000000003E-2</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>-0.32269999999999999</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>-0.180978</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>-8.3612000000000006E-2</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>-7.9240000000000005E-2</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>-0.16256899999999999</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>-4.0952000000000002E-2</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <f t="shared" si="0"/>
         <v>-9.2540499999999998E-2</v>
       </c>
-      <c r="N24">
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>-0.1017605</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="1"/>
-        <v>-0.1017605</v>
-      </c>
-      <c r="O24">
+        <v>-8.1425999999999998E-2</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="2"/>
-        <v>-8.1425999999999998E-2</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="3"/>
         <v>-0.25183899999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="9">
+        <v>9.0754258770000007</v>
+      </c>
+      <c r="C25" s="1">
         <v>8.3969000000000005</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="3">
         <v>22</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="11">
+        <f t="shared" si="3"/>
+        <v>31.075425877000001</v>
+      </c>
+      <c r="F25" s="2">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>-0.18016799999999999</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>-0.163575</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>1.3393E-2</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>3.6181999999999999E-2</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>6.6763000000000003E-2</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.109371</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>-0.127494</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>-7.4638999999999997E-2</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <f t="shared" si="0"/>
         <v>-0.17187150000000001</v>
       </c>
-      <c r="N25">
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>-0.1010665</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="1"/>
-        <v>-0.1010665</v>
-      </c>
-      <c r="O25">
+        <v>8.8067000000000006E-2</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="2"/>
-        <v>8.8067000000000006E-2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="3"/>
         <v>2.4787500000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="9">
+        <v>12.455561510000001</v>
+      </c>
+      <c r="C26" s="1">
         <v>10.875999999999999</v>
       </c>
-      <c r="C26" s="6">
+      <c r="D26" s="3">
         <v>18</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="11">
+        <f t="shared" si="3"/>
+        <v>30.455561510000003</v>
+      </c>
+      <c r="F26" s="2">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>-6.6739000000000007E-2</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>3.3617000000000001E-2</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>4.9820999999999997E-2</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>3.1959000000000001E-2</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>5.9305999999999998E-2</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>-5.4826E-2</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>2.0195000000000001E-2</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>8.3649000000000001E-2</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <f t="shared" si="0"/>
         <v>-1.6561000000000003E-2</v>
       </c>
-      <c r="N26">
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>5.1922000000000003E-2</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="1"/>
-        <v>5.1922000000000003E-2</v>
-      </c>
-      <c r="O26">
+        <v>2.2399999999999989E-3</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="2"/>
-        <v>2.2399999999999989E-3</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="3"/>
         <v>4.0889999999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="9">
+        <v>9.5907081900000009</v>
+      </c>
+      <c r="C27" s="1">
         <v>8.4403000000000006</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="3">
         <v>32</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="11">
+        <f t="shared" si="3"/>
+        <v>41.590708190000001</v>
+      </c>
+      <c r="F27" s="2">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>-0.123791</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>-0.20208100000000001</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>3.5944999999999998E-2</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>2.2284999999999999E-2</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>-4.6586000000000002E-2</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>-1.4815999999999999E-2</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>-0.15120800000000001</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>-0.13892099999999999</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <f t="shared" si="0"/>
         <v>-0.162936</v>
       </c>
-      <c r="N27">
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>-0.14506449999999999</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="1"/>
-        <v>-0.14506449999999999</v>
-      </c>
-      <c r="O27">
+        <v>-3.0700999999999999E-2</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="2"/>
-        <v>-3.0700999999999999E-2</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="3"/>
         <v>2.9114999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="9">
+        <v>8.0717615449999993</v>
+      </c>
+      <c r="C28" s="1">
         <v>6.7473000000000001</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="3">
         <v>20</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="11">
+        <f t="shared" si="3"/>
+        <v>28.071761545000001</v>
+      </c>
+      <c r="F28" s="2">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>-8.9329000000000006E-2</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>-0.23002300000000001</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>1.6114E-2</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>0.13467999999999999</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>-0.14354800000000001</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>-0.187551</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>0.12603200000000001</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>-3.3774999999999999E-2</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <f t="shared" si="0"/>
         <v>-0.15967600000000001</v>
       </c>
-      <c r="N28">
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>4.6128500000000003E-2</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="1"/>
-        <v>4.6128500000000003E-2</v>
-      </c>
-      <c r="O28">
+        <v>-0.16554950000000002</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="2"/>
-        <v>-0.16554950000000002</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="3"/>
         <v>7.5396999999999992E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="9">
+        <v>7.342681936</v>
+      </c>
+      <c r="C29" s="1">
         <v>5.7484999999999999</v>
       </c>
-      <c r="C29" s="6">
+      <c r="D29" s="3">
         <v>20</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="11">
+        <f t="shared" si="3"/>
+        <v>27.342681935999998</v>
+      </c>
+      <c r="F29" s="2">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>-0.11485099999999999</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>3.1149E-2</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>-0.161076</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>-6.1520999999999999E-2</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>-5.3199999999999997E-2</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0.119044</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>-0.15851899999999999</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>-9.2040999999999998E-2</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <f t="shared" si="0"/>
         <v>-4.1850999999999999E-2</v>
       </c>
-      <c r="N29">
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>-0.12528</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="1"/>
-        <v>-0.12528</v>
-      </c>
-      <c r="O29">
+        <v>3.2922E-2</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="2"/>
-        <v>3.2922E-2</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="3"/>
         <v>-0.11129849999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="9">
+        <v>6.4145326760000003</v>
+      </c>
+      <c r="C30" s="1">
         <v>6.6740000000000004</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="3">
         <v>18</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="11">
+        <f t="shared" si="3"/>
+        <v>24.414532676</v>
+      </c>
+      <c r="F30" s="2">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>-0.217475</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>-0.178921</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>0.114172</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>0.13848099999999999</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>0.17960000000000001</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>0.21753500000000001</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>-8.1018000000000007E-2</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>-6.9511000000000003E-2</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <f t="shared" si="0"/>
         <v>-0.19819799999999999</v>
       </c>
-      <c r="N30">
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>-7.5264500000000012E-2</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="1"/>
-        <v>-7.5264500000000012E-2</v>
-      </c>
-      <c r="O30">
+        <v>0.19856750000000001</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="2"/>
-        <v>0.19856750000000001</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="3"/>
         <v>0.12632650000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="9">
+        <v>7.5935271159999997</v>
+      </c>
+      <c r="C31" s="1">
         <v>7.1413000000000002</v>
       </c>
-      <c r="C31" s="6">
+      <c r="D31" s="3">
         <v>35</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="11">
+        <f t="shared" si="3"/>
+        <v>42.593527115999997</v>
+      </c>
+      <c r="F31" s="2">
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>-0.27234599999999998</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>-0.11481</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>-0.19425000000000001</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>-0.15457199999999999</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>-0.17371800000000001</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>-0.19462699999999999</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>-1.0366999999999999E-2</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>-2.3716999999999998E-2</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <f t="shared" si="0"/>
         <v>-0.19357799999999997</v>
       </c>
-      <c r="N31">
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>-1.7041999999999998E-2</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="1"/>
-        <v>-1.7041999999999998E-2</v>
-      </c>
-      <c r="O31">
+        <v>-0.18417250000000002</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="2"/>
-        <v>-0.18417250000000002</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="3"/>
         <v>-0.17441099999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="9">
+        <v>6.0862399470000002</v>
+      </c>
+      <c r="C32" s="1">
         <v>5.1193</v>
       </c>
-      <c r="C32" s="6">
+      <c r="D32" s="3">
         <v>27</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="11">
+        <f t="shared" si="3"/>
+        <v>33.086239947000003</v>
+      </c>
+      <c r="F32" s="2">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>1.2302E-2</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>3.4256000000000002E-2</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>2.0549000000000001E-2</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>-1.2631E-2</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>4.0141999999999997E-2</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>0.11580600000000001</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>-3.3739999999999998E-3</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>-5.1005000000000002E-2</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <f t="shared" si="0"/>
         <v>2.3279000000000001E-2</v>
       </c>
-      <c r="N32">
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>-2.7189500000000002E-2</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="1"/>
-        <v>-2.7189500000000002E-2</v>
-      </c>
-      <c r="O32">
+        <v>7.7974000000000002E-2</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="2"/>
-        <v>7.7974000000000002E-2</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="3"/>
         <v>3.9590000000000007E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="9">
+        <v>7.081494341</v>
+      </c>
+      <c r="C33" s="1">
         <v>6.8760000000000003</v>
       </c>
-      <c r="C33" s="6">
+      <c r="D33" s="3">
         <v>21</v>
       </c>
-      <c r="D33" s="5">
+      <c r="E33" s="11">
+        <f t="shared" si="3"/>
+        <v>28.081494340999999</v>
+      </c>
+      <c r="F33" s="2">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>-0.123058</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>-0.15879399999999999</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.12012</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>0.13563500000000001</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>0.26120700000000002</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>0.23862700000000001</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>-0.16443199999999999</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>-0.10000299999999999</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <f t="shared" si="0"/>
         <v>-0.140926</v>
       </c>
-      <c r="N33">
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>-0.13221749999999999</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="1"/>
-        <v>-0.13221749999999999</v>
-      </c>
-      <c r="O33">
+        <v>0.249917</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="2"/>
-        <v>0.249917</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="3"/>
         <v>0.12787750000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="9">
+        <v>10.586067829999999</v>
+      </c>
+      <c r="C34" s="1">
         <v>10.682600000000001</v>
       </c>
-      <c r="C34" s="6">
+      <c r="D34" s="3">
         <v>22</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="11">
+        <f t="shared" si="3"/>
+        <v>32.586067829999998</v>
+      </c>
+      <c r="F34" s="2">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>1.686E-2</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>3.026E-3</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>-6.1380999999999998E-2</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>-0.161796</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>-0.1232</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>-0.30429</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>0.116092</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>0.12664800000000001</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
+      <c r="O34">
+        <f t="shared" ref="O34:O65" si="5">AVERAGE(G34,H34)</f>
         <v>9.9430000000000004E-3</v>
       </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
+      <c r="P34">
+        <f t="shared" si="4"/>
         <v>0.12137000000000001</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="2"/>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q66" si="6">AVERAGE(K34,L34)</f>
         <v>-0.21374500000000002</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="3"/>
+      <c r="R34">
+        <f t="shared" ref="R34:R66" si="7">AVERAGE(I34,J34)</f>
         <v>-0.11158849999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="9">
+        <v>11.05144366</v>
+      </c>
+      <c r="C35" s="1">
         <v>9.7484000000000002</v>
       </c>
-      <c r="C35" s="6">
+      <c r="D35" s="3">
         <v>23</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="11">
+        <f t="shared" si="3"/>
+        <v>34.051443660000004</v>
+      </c>
+      <c r="F35" s="2">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>-0.20955199999999999</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>-0.119703</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>1.89E-2</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>7.5648000000000007E-2</v>
       </c>
-      <c r="I35" s="11">
+      <c r="K35" s="8">
         <v>3.8027999999999999E-2</v>
       </c>
-      <c r="J35" s="11">
+      <c r="L35" s="8">
         <v>-3.3804000000000001E-2</v>
       </c>
-      <c r="K35" s="11">
+      <c r="M35" s="8">
         <v>-0.19728599999999999</v>
       </c>
-      <c r="L35" s="11">
+      <c r="N35" s="8">
         <v>-8.1860000000000002E-2</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="0"/>
+      <c r="O35">
+        <f t="shared" si="5"/>
         <v>-0.16462749999999998</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
+      <c r="P35">
+        <f t="shared" si="4"/>
         <v>-0.139573</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="2"/>
+      <c r="Q35">
+        <f t="shared" si="6"/>
         <v>2.1119999999999993E-3</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="3"/>
+      <c r="R35">
+        <f t="shared" si="7"/>
         <v>4.7274000000000004E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="9">
+        <v>6.4567896820000001</v>
+      </c>
+      <c r="C36" s="1">
         <v>6.3623000000000003</v>
       </c>
-      <c r="C36" s="6">
+      <c r="D36" s="10">
         <v>19</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E36" s="11">
+        <f t="shared" si="3"/>
+        <v>25.456789682</v>
+      </c>
+      <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>0.1038</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>1.358E-2</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>3.5002999999999999E-2</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>2.5399999999999999E-4</v>
       </c>
-      <c r="I36" s="11">
+      <c r="K36" s="8">
         <v>-2.6162000000000001E-2</v>
       </c>
-      <c r="J36" s="11">
+      <c r="L36" s="8">
         <v>-6.1238000000000001E-2</v>
       </c>
-      <c r="K36" s="11">
+      <c r="M36" s="8">
         <v>5.3415999999999998E-2</v>
       </c>
-      <c r="L36" s="11">
+      <c r="N36" s="8">
         <v>6.8223000000000006E-2</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
+      <c r="O36">
+        <f t="shared" si="5"/>
         <v>5.8689999999999999E-2</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
+      <c r="P36">
+        <f t="shared" si="4"/>
         <v>6.0819499999999999E-2</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="2"/>
+      <c r="Q36">
+        <f t="shared" si="6"/>
         <v>-4.3700000000000003E-2</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="3"/>
+      <c r="R36">
+        <f t="shared" si="7"/>
         <v>1.7628499999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="9">
+        <v>7.0149834110000002</v>
+      </c>
+      <c r="C37" s="1">
         <v>6.6323999999999996</v>
       </c>
-      <c r="C37" s="6">
+      <c r="D37" s="3">
         <v>20</v>
       </c>
-      <c r="D37" s="5">
+      <c r="E37" s="11">
+        <f>SUM(A37,B37,D37)</f>
+        <v>27.014983410999999</v>
+      </c>
+      <c r="F37" s="2">
         <v>1</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>-0.15945799999999999</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>-0.100619</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>7.7044000000000001E-2</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>0.103228</v>
       </c>
-      <c r="I37" s="11">
+      <c r="K37" s="8">
         <v>-8.404E-3</v>
       </c>
-      <c r="J37" s="11">
+      <c r="L37" s="8">
         <v>-4.8593999999999998E-2</v>
       </c>
-      <c r="K37" s="11">
+      <c r="M37" s="8">
         <v>1.7937999999999999E-2</v>
       </c>
-      <c r="L37" s="11">
+      <c r="N37" s="8">
         <v>6.9194000000000006E-2</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="0"/>
+      <c r="O37">
+        <f t="shared" si="5"/>
         <v>-0.1300385</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="1"/>
+      <c r="P37">
+        <f t="shared" si="4"/>
         <v>4.3566000000000001E-2</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="2"/>
+      <c r="Q37">
+        <f t="shared" si="6"/>
         <v>-2.8499E-2</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="3"/>
+      <c r="R37">
+        <f t="shared" si="7"/>
         <v>9.0135999999999994E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="9">
+        <v>5.2837627459999998</v>
+      </c>
+      <c r="C38" s="1">
         <v>5.8707000000000003</v>
       </c>
-      <c r="C38" s="6">
+      <c r="D38" s="3">
         <v>23</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="11">
+        <f t="shared" si="3"/>
+        <v>28.283762746000001</v>
+      </c>
+      <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>0.220913</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>0.18799199999999999</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>5.3681E-2</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>0.105311</v>
       </c>
-      <c r="I38" s="11">
+      <c r="K38" s="8">
         <v>7.8881000000000007E-2</v>
       </c>
-      <c r="J38" s="11">
+      <c r="L38" s="8">
         <v>0.14035700000000001</v>
       </c>
-      <c r="K38" s="11">
+      <c r="M38" s="8">
         <v>0.193687</v>
       </c>
-      <c r="L38" s="11">
+      <c r="N38" s="8">
         <v>9.2760999999999996E-2</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="0"/>
+      <c r="O38">
+        <f t="shared" si="5"/>
         <v>0.20445249999999998</v>
       </c>
-      <c r="N38">
-        <f t="shared" si="1"/>
+      <c r="P38">
+        <f t="shared" si="4"/>
         <v>0.14322399999999999</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="2"/>
+      <c r="Q38">
+        <f t="shared" si="6"/>
         <v>0.10961900000000001</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="3"/>
+      <c r="R38">
+        <f t="shared" si="7"/>
         <v>7.9495999999999997E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="9">
+        <v>11.89285005</v>
+      </c>
+      <c r="C39" s="1">
         <v>10.6219</v>
       </c>
-      <c r="C39" s="6">
+      <c r="D39" s="3">
         <v>26</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="11">
+        <f t="shared" si="3"/>
+        <v>37.89285005</v>
+      </c>
+      <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>-0.22715299999999999</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>-0.111288</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>0.10972</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>0.148752</v>
       </c>
-      <c r="I39" s="11">
+      <c r="K39" s="8">
         <v>5.9101000000000001E-2</v>
       </c>
-      <c r="J39" s="11">
+      <c r="L39" s="8">
         <v>0.207646</v>
       </c>
-      <c r="K39" s="11">
+      <c r="M39" s="8">
         <v>-1.9528E-2</v>
       </c>
-      <c r="L39" s="11">
+      <c r="N39" s="8">
         <v>-6.4127000000000003E-2</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="0"/>
+      <c r="O39">
+        <f t="shared" si="5"/>
         <v>-0.1692205</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="1"/>
+      <c r="P39">
+        <f t="shared" si="4"/>
         <v>-4.1827500000000004E-2</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="2"/>
+      <c r="Q39">
+        <f t="shared" si="6"/>
         <v>0.13337350000000001</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="3"/>
+      <c r="R39">
+        <f t="shared" si="7"/>
         <v>0.12923599999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="9">
+        <v>7.4700715549999996</v>
+      </c>
+      <c r="C40" s="1">
         <v>6.7069999999999999</v>
       </c>
-      <c r="C40" s="6">
+      <c r="D40" s="3">
         <v>34</v>
       </c>
-      <c r="D40" s="5">
+      <c r="E40" s="11">
+        <f t="shared" si="3"/>
+        <v>41.470071554999997</v>
+      </c>
+      <c r="F40" s="2">
         <v>1</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>0.194741</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>0.229794</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>9.7147999999999998E-2</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>7.0703000000000002E-2</v>
       </c>
-      <c r="I40" s="11">
+      <c r="K40" s="8">
         <v>0.12393700000000001</v>
       </c>
-      <c r="J40" s="11">
+      <c r="L40" s="8">
         <v>0.23905000000000001</v>
       </c>
-      <c r="K40" s="11">
+      <c r="M40" s="8">
         <v>7.7166999999999999E-2</v>
       </c>
-      <c r="L40" s="11">
+      <c r="N40" s="8">
         <v>9.3731999999999996E-2</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="0"/>
+      <c r="O40">
+        <f t="shared" si="5"/>
         <v>0.2122675</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="1"/>
+      <c r="P40">
+        <f t="shared" si="4"/>
         <v>8.5449499999999998E-2</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="2"/>
+      <c r="Q40">
+        <f t="shared" si="6"/>
         <v>0.1814935</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="3"/>
+      <c r="R40">
+        <f t="shared" si="7"/>
         <v>8.39255E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="9">
+        <v>9.8922949379999991</v>
+      </c>
+      <c r="C41" s="1">
         <v>9.8196999999999992</v>
       </c>
-      <c r="C41" s="6">
+      <c r="D41" s="3">
         <v>21</v>
       </c>
-      <c r="D41" s="5">
+      <c r="E41" s="11">
+        <f t="shared" si="3"/>
+        <v>30.892294937999999</v>
+      </c>
+      <c r="F41" s="2">
         <v>1</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>-7.9472000000000001E-2</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>-0.21967800000000001</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>0.210281</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>0.17183999999999999</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>0.12825500000000001</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>0.17574200000000001</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>6.0614000000000001E-2</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>-1.4874999999999999E-2</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="0"/>
+      <c r="O41">
+        <f t="shared" si="5"/>
         <v>-0.14957500000000001</v>
       </c>
-      <c r="N41">
-        <f t="shared" si="1"/>
+      <c r="P41">
+        <f t="shared" si="4"/>
         <v>2.2869500000000001E-2</v>
       </c>
-      <c r="O41">
-        <f t="shared" si="2"/>
+      <c r="Q41">
+        <f t="shared" si="6"/>
         <v>0.15199850000000001</v>
       </c>
-      <c r="P41">
-        <f t="shared" si="3"/>
+      <c r="R41">
+        <f t="shared" si="7"/>
         <v>0.19106049999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="9">
+        <v>10.03014694</v>
+      </c>
+      <c r="C42" s="1">
         <v>9.8634000000000004</v>
       </c>
-      <c r="C42" s="6">
+      <c r="D42" s="3">
         <v>23</v>
       </c>
-      <c r="D42" s="5">
+      <c r="E42" s="11">
+        <f t="shared" si="3"/>
+        <v>33.030146940000002</v>
+      </c>
+      <c r="F42" s="2">
         <v>1</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>6.6807000000000005E-2</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>-1.6109999999999999E-2</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>-1.325E-2</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>-2.4538000000000001E-2</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>-7.4576000000000003E-2</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>-1.1429E-2</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>-5.705E-3</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>7.8172000000000005E-2</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="0"/>
+      <c r="O42">
+        <f t="shared" si="5"/>
         <v>2.5348500000000003E-2</v>
       </c>
-      <c r="N42">
-        <f t="shared" si="1"/>
+      <c r="P42">
+        <f t="shared" si="4"/>
         <v>3.6233500000000002E-2</v>
       </c>
-      <c r="O42">
-        <f t="shared" si="2"/>
+      <c r="Q42">
+        <f t="shared" si="6"/>
         <v>-4.3002499999999999E-2</v>
       </c>
-      <c r="P42">
-        <f t="shared" si="3"/>
+      <c r="R42">
+        <f t="shared" si="7"/>
         <v>-1.8894000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="9">
+        <v>6.3420774990000002</v>
+      </c>
+      <c r="C43" s="1">
         <v>6.4911000000000003</v>
       </c>
-      <c r="C43" s="6">
+      <c r="D43" s="3">
         <v>23</v>
       </c>
-      <c r="D43" s="5">
+      <c r="E43" s="11">
+        <f t="shared" si="3"/>
+        <v>29.342077498999998</v>
+      </c>
+      <c r="F43" s="2">
         <v>1</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>-4.9435E-2</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>0.102522</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>8.1949999999999995E-2</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>0.132909</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>7.2881000000000001E-2</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>0.19786000000000001</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>3.4399999999999999E-3</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>0.10079100000000001</v>
       </c>
-      <c r="M43">
-        <f t="shared" si="0"/>
+      <c r="O43">
+        <f t="shared" si="5"/>
         <v>2.6543500000000001E-2</v>
       </c>
-      <c r="N43">
-        <f t="shared" si="1"/>
+      <c r="P43">
+        <f t="shared" si="4"/>
         <v>5.2115500000000002E-2</v>
       </c>
-      <c r="O43">
-        <f t="shared" si="2"/>
+      <c r="Q43">
+        <f t="shared" si="6"/>
         <v>0.1353705</v>
       </c>
-      <c r="P43">
-        <f t="shared" si="3"/>
+      <c r="R43">
+        <f t="shared" si="7"/>
         <v>0.1074295</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="9">
+        <v>4.6882489380000001</v>
+      </c>
+      <c r="C44" s="1">
         <v>3.8052999999999999</v>
       </c>
-      <c r="C44" s="6">
+      <c r="D44" s="3">
         <v>20</v>
       </c>
-      <c r="D44" s="5">
+      <c r="E44" s="11">
+        <f t="shared" si="3"/>
+        <v>24.688248938000001</v>
+      </c>
+      <c r="F44" s="2">
         <v>1</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>5.3991999999999998E-2</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>1.8467000000000001E-2</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>4.0021000000000001E-2</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>5.2283999999999997E-2</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>6.9787000000000002E-2</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>3.9681000000000001E-2</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>3.0273999999999999E-2</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>7.3447999999999999E-2</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="0"/>
+      <c r="O44">
+        <f t="shared" si="5"/>
         <v>3.6229499999999998E-2</v>
       </c>
-      <c r="N44">
-        <f t="shared" si="1"/>
+      <c r="P44">
+        <f t="shared" si="4"/>
         <v>5.1860999999999997E-2</v>
       </c>
-      <c r="O44">
-        <f t="shared" si="2"/>
+      <c r="Q44">
+        <f t="shared" si="6"/>
         <v>5.4734000000000005E-2</v>
       </c>
-      <c r="P44">
-        <f t="shared" si="3"/>
+      <c r="R44">
+        <f t="shared" si="7"/>
         <v>4.6152499999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="9">
+        <v>10.41813013</v>
+      </c>
+      <c r="C45" s="1">
         <v>8.9419000000000004</v>
       </c>
-      <c r="C45" s="6">
+      <c r="D45" s="3">
         <v>19</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="11">
+        <f t="shared" si="3"/>
+        <v>29.418130130000002</v>
+      </c>
+      <c r="F45" s="2">
         <v>1</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>2.8681000000000002E-2</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>-0.18237999999999999</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>-8.2423999999999997E-2</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>-5.8012000000000001E-2</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>-0.18756100000000001</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>3.3930000000000002E-2</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>1.0061E-2</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>3.0689999999999999E-2</v>
       </c>
-      <c r="M45">
-        <f t="shared" si="0"/>
+      <c r="O45">
+        <f t="shared" si="5"/>
         <v>-7.6849499999999987E-2</v>
       </c>
-      <c r="N45">
-        <f t="shared" si="1"/>
+      <c r="P45">
+        <f t="shared" si="4"/>
         <v>2.0375499999999998E-2</v>
       </c>
-      <c r="O45">
-        <f t="shared" si="2"/>
+      <c r="Q45">
+        <f t="shared" si="6"/>
         <v>-7.6815500000000009E-2</v>
       </c>
-      <c r="P45">
-        <f t="shared" si="3"/>
+      <c r="R45">
+        <f t="shared" si="7"/>
         <v>-7.0218000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="9">
+        <v>8.2012861650000008</v>
+      </c>
+      <c r="C46" s="1">
         <v>7.8029000000000002</v>
       </c>
-      <c r="C46" s="6">
+      <c r="D46" s="3">
         <v>18</v>
       </c>
-      <c r="D46" s="5">
+      <c r="E46" s="11">
+        <f t="shared" si="3"/>
+        <v>26.201286164999999</v>
+      </c>
+      <c r="F46" s="2">
         <v>1</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>0.15373800000000001</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>0.123721</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>0.117577</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>9.4061000000000006E-2</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>-5.2871000000000001E-2</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>0.12706000000000001</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>-5.3365000000000003E-2</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>-2.0787E-2</v>
       </c>
-      <c r="M46">
-        <f t="shared" si="0"/>
+      <c r="O46">
+        <f t="shared" si="5"/>
         <v>0.13872950000000001</v>
       </c>
-      <c r="N46">
-        <f t="shared" si="1"/>
+      <c r="P46">
+        <f t="shared" si="4"/>
         <v>-3.7075999999999998E-2</v>
       </c>
-      <c r="O46">
-        <f t="shared" si="2"/>
+      <c r="Q46">
+        <f t="shared" si="6"/>
         <v>3.7094500000000002E-2</v>
       </c>
-      <c r="P46">
-        <f t="shared" si="3"/>
+      <c r="R46">
+        <f t="shared" si="7"/>
         <v>0.105819</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="9">
+        <v>11.849809</v>
+      </c>
+      <c r="C47" s="1">
         <v>9.8434000000000008</v>
       </c>
-      <c r="C47" s="6">
+      <c r="D47" s="3">
         <v>21</v>
       </c>
-      <c r="D47" s="5">
+      <c r="E47" s="11">
+        <f t="shared" si="3"/>
+        <v>32.849809</v>
+      </c>
+      <c r="F47" s="2">
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>-6.7613000000000006E-2</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>-0.12595500000000001</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>0.215258</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>0.137603</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>0.128694</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>3.6677000000000001E-2</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>-7.7329999999999996E-2</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>-2.4535000000000001E-2</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="0"/>
+      <c r="O47">
+        <f t="shared" si="5"/>
         <v>-9.6784000000000009E-2</v>
       </c>
-      <c r="N47">
-        <f t="shared" si="1"/>
+      <c r="P47">
+        <f t="shared" si="4"/>
         <v>-5.0932499999999999E-2</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="2"/>
+      <c r="Q47">
+        <f t="shared" si="6"/>
         <v>8.2685499999999995E-2</v>
       </c>
-      <c r="P47">
-        <f t="shared" si="3"/>
+      <c r="R47">
+        <f t="shared" si="7"/>
         <v>0.17643049999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="9">
+        <v>8.5473098879999991</v>
+      </c>
+      <c r="C48" s="1">
         <v>6.5369000000000002</v>
       </c>
-      <c r="C48" s="6">
+      <c r="D48" s="3">
         <v>21</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E48" s="11">
+        <f t="shared" si="3"/>
+        <v>29.547309888000001</v>
+      </c>
+      <c r="F48" s="2">
         <v>1</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>0.12812999999999999</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>0.20866000000000001</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>-0.11538</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>8.3829999999999998E-3</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>7.8531000000000004E-2</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>0.11221399999999999</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>9.3473000000000001E-2</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>0.11176899999999999</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="0"/>
+      <c r="O48">
+        <f t="shared" si="5"/>
         <v>0.16839500000000002</v>
       </c>
-      <c r="N48">
-        <f t="shared" si="1"/>
+      <c r="P48">
+        <f t="shared" si="4"/>
         <v>0.10262099999999999</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="2"/>
+      <c r="Q48">
+        <f t="shared" si="6"/>
         <v>9.5372499999999999E-2</v>
       </c>
-      <c r="P48">
-        <f t="shared" si="3"/>
+      <c r="R48">
+        <f t="shared" si="7"/>
         <v>-5.3498499999999997E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="9">
+        <v>8.8874420109999992</v>
+      </c>
+      <c r="C49" s="1">
         <v>6.3827999999999996</v>
       </c>
-      <c r="C49" s="6">
+      <c r="D49" s="3">
         <v>19</v>
       </c>
-      <c r="D49" s="5">
+      <c r="E49" s="11">
+        <f t="shared" si="3"/>
+        <v>27.887442010999997</v>
+      </c>
+      <c r="F49" s="2">
         <v>1</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>9.7069000000000003E-2</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>0.110414</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>3.7615000000000003E-2</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>8.4153000000000006E-2</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>0.10111000000000001</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>0.19539500000000001</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>1.1417E-2</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>5.8465000000000003E-2</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="0"/>
+      <c r="O49">
+        <f t="shared" si="5"/>
         <v>0.1037415</v>
       </c>
-      <c r="N49">
-        <f t="shared" si="1"/>
+      <c r="P49">
+        <f t="shared" si="4"/>
         <v>3.4941E-2</v>
       </c>
-      <c r="O49">
-        <f t="shared" si="2"/>
+      <c r="Q49">
+        <f t="shared" si="6"/>
         <v>0.14825250000000001</v>
       </c>
-      <c r="P49">
-        <f t="shared" si="3"/>
+      <c r="R49">
+        <f t="shared" si="7"/>
         <v>6.0884000000000008E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="9">
+        <v>8.2229687370000004</v>
+      </c>
+      <c r="C50" s="1">
         <v>7.1338999999999997</v>
       </c>
-      <c r="C50" s="6">
+      <c r="D50" s="3">
         <v>19</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E50" s="11">
+        <f t="shared" si="3"/>
+        <v>27.222968737000002</v>
+      </c>
+      <c r="F50" s="2">
         <v>1</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>6.0309000000000001E-2</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>0.11498899999999999</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>5.5965000000000001E-2</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>0.13961200000000001</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>2.6889E-2</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>-4.7113000000000002E-2</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>0.22964499999999999</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>0.23819199999999999</v>
       </c>
-      <c r="M50">
-        <f t="shared" si="0"/>
+      <c r="O50">
+        <f t="shared" si="5"/>
         <v>8.7649000000000005E-2</v>
       </c>
-      <c r="N50">
-        <f t="shared" si="1"/>
+      <c r="P50">
+        <f t="shared" si="4"/>
         <v>0.23391849999999997</v>
       </c>
-      <c r="O50">
-        <f t="shared" si="2"/>
+      <c r="Q50">
+        <f t="shared" si="6"/>
         <v>-1.0112000000000001E-2</v>
       </c>
-      <c r="P50">
-        <f t="shared" si="3"/>
+      <c r="R50">
+        <f t="shared" si="7"/>
         <v>9.77885E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="9">
+        <v>9.3975206280000005</v>
+      </c>
+      <c r="C51" s="1">
         <v>9.2367000000000008</v>
       </c>
-      <c r="C51" s="6">
+      <c r="D51" s="3">
         <v>21</v>
       </c>
-      <c r="D51" s="5">
+      <c r="E51" s="11">
+        <f t="shared" si="3"/>
+        <v>30.397520628000002</v>
+      </c>
+      <c r="F51" s="2">
         <v>1</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>9.3939999999999996E-3</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>0.116038</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>6.5917000000000003E-2</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>7.9843999999999998E-2</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>0.21001400000000001</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>0.143349</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>-6.8446000000000007E-2</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>1.9552E-2</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="0"/>
+      <c r="O51">
+        <f t="shared" si="5"/>
         <v>6.2715999999999994E-2</v>
       </c>
-      <c r="N51">
-        <f t="shared" si="1"/>
+      <c r="P51">
+        <f t="shared" si="4"/>
         <v>-2.4447000000000003E-2</v>
       </c>
-      <c r="O51">
-        <f t="shared" si="2"/>
+      <c r="Q51">
+        <f t="shared" si="6"/>
         <v>0.17668149999999999</v>
       </c>
-      <c r="P51">
-        <f t="shared" si="3"/>
+      <c r="R51">
+        <f t="shared" si="7"/>
         <v>7.2880500000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="9">
+        <v>8.2672692869999995</v>
+      </c>
+      <c r="C52" s="1">
         <v>7.0613999999999999</v>
       </c>
-      <c r="C52" s="6">
+      <c r="D52" s="3">
         <v>18</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="11">
+        <f t="shared" si="3"/>
+        <v>26.267269286999998</v>
+      </c>
+      <c r="F52" s="2">
         <v>1</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>-0.101994</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>-2.9968999999999999E-2</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>-0.140128</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>-0.186363</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>-0.123182</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>-8.4975999999999996E-2</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>-4.2680000000000003E-2</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>6.6969999999999998E-3</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="0"/>
+      <c r="O52">
+        <f t="shared" si="5"/>
         <v>-6.5981499999999998E-2</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="1"/>
+      <c r="P52">
+        <f t="shared" si="4"/>
         <v>-1.7991500000000001E-2</v>
       </c>
-      <c r="O52">
-        <f t="shared" si="2"/>
+      <c r="Q52">
+        <f t="shared" si="6"/>
         <v>-0.104079</v>
       </c>
-      <c r="P52">
-        <f t="shared" si="3"/>
+      <c r="R52">
+        <f t="shared" si="7"/>
         <v>-0.16324549999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="9">
+        <v>7.7223976429999999</v>
+      </c>
+      <c r="C53" s="1">
         <v>6.7188999999999997</v>
       </c>
-      <c r="C53" s="6">
+      <c r="D53" s="3">
         <v>20</v>
       </c>
-      <c r="D53" s="5">
+      <c r="E53" s="11">
+        <f t="shared" si="3"/>
+        <v>27.722397643000001</v>
+      </c>
+      <c r="F53" s="2">
         <v>1</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>6.2269999999999999E-3</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>-5.7305000000000002E-2</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>0.141262</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>0.131714</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>0.22051399999999999</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>0.21227699999999999</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>-3.8386999999999998E-2</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>4.1669999999999997E-3</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="0"/>
+      <c r="O53">
+        <f t="shared" si="5"/>
         <v>-2.5538999999999999E-2</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="1"/>
+      <c r="P53">
+        <f t="shared" si="4"/>
         <v>-1.711E-2</v>
       </c>
-      <c r="O53">
-        <f t="shared" si="2"/>
+      <c r="Q53">
+        <f t="shared" si="6"/>
         <v>0.21639549999999999</v>
       </c>
-      <c r="P53">
-        <f t="shared" si="3"/>
+      <c r="R53">
+        <f t="shared" si="7"/>
         <v>0.136488</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="9">
+        <v>12.39948104</v>
+      </c>
+      <c r="C54" s="1">
         <v>9.7673000000000005</v>
       </c>
-      <c r="C54" s="6">
+      <c r="D54" s="3">
         <v>21</v>
       </c>
-      <c r="D54" s="5">
+      <c r="E54" s="11">
+        <f t="shared" si="3"/>
+        <v>33.399481039999998</v>
+      </c>
+      <c r="F54" s="2">
         <v>1</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>-3.5672000000000002E-2</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>7.6295000000000002E-2</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>4.7572000000000003E-2</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>-3.0850000000000001E-3</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>0.110315</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>9.5028000000000001E-2</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>5.1610000000000003E-2</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>8.0058000000000004E-2</v>
       </c>
-      <c r="M54">
-        <f t="shared" si="0"/>
+      <c r="O54">
+        <f t="shared" si="5"/>
         <v>2.03115E-2</v>
       </c>
-      <c r="N54">
-        <f t="shared" si="1"/>
+      <c r="P54">
+        <f t="shared" si="4"/>
         <v>6.5834000000000004E-2</v>
       </c>
-      <c r="O54">
-        <f t="shared" si="2"/>
+      <c r="Q54">
+        <f t="shared" si="6"/>
         <v>0.1026715</v>
       </c>
-      <c r="P54">
-        <f t="shared" si="3"/>
+      <c r="R54">
+        <f t="shared" si="7"/>
         <v>2.2243500000000003E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="9">
+        <v>8.4076809709999996</v>
+      </c>
+      <c r="C55" s="1">
         <v>8.6026000000000007</v>
       </c>
-      <c r="C55" s="6">
+      <c r="D55" s="3">
         <v>20</v>
       </c>
-      <c r="D55" s="5">
+      <c r="E55" s="11">
+        <f t="shared" si="3"/>
+        <v>28.407680970999998</v>
+      </c>
+      <c r="F55" s="2">
         <v>1</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>-1.4454E-2</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>5.6370999999999997E-2</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>-0.22386500000000001</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>-0.243644</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>-0.20683399999999999</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>-0.108635</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>5.4892999999999997E-2</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>-2.7099999999999997E-4</v>
       </c>
-      <c r="M55">
-        <f t="shared" si="0"/>
+      <c r="O55">
+        <f t="shared" si="5"/>
         <v>2.0958499999999998E-2</v>
       </c>
-      <c r="N55">
-        <f t="shared" si="1"/>
+      <c r="P55">
+        <f t="shared" si="4"/>
         <v>2.7310999999999998E-2</v>
       </c>
-      <c r="O55">
-        <f t="shared" si="2"/>
+      <c r="Q55">
+        <f t="shared" si="6"/>
         <v>-0.1577345</v>
       </c>
-      <c r="P55">
-        <f t="shared" si="3"/>
+      <c r="R55">
+        <f t="shared" si="7"/>
         <v>-0.2337545</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="9">
+        <v>8.5382332059999992</v>
+      </c>
+      <c r="C56" s="1">
         <v>7.6535000000000002</v>
       </c>
-      <c r="C56" s="6">
+      <c r="D56" s="3">
         <v>19</v>
       </c>
-      <c r="D56" s="5">
+      <c r="E56" s="11">
+        <f t="shared" si="3"/>
+        <v>27.538233206000001</v>
+      </c>
+      <c r="F56" s="2">
         <v>1</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>-3.7810000000000003E-2</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>0.13406599999999999</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>0.12843599999999999</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>0.148115</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>4.7473000000000001E-2</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>0.28090999999999999</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>6.5765000000000004E-2</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>6.0911E-2</v>
       </c>
-      <c r="M56">
-        <f t="shared" si="0"/>
+      <c r="O56">
+        <f t="shared" si="5"/>
         <v>4.812799999999999E-2</v>
       </c>
-      <c r="N56">
-        <f t="shared" si="1"/>
+      <c r="P56">
+        <f t="shared" si="4"/>
         <v>6.3338000000000005E-2</v>
       </c>
-      <c r="O56">
-        <f t="shared" si="2"/>
+      <c r="Q56">
+        <f t="shared" si="6"/>
         <v>0.16419149999999999</v>
       </c>
-      <c r="P56">
-        <f t="shared" si="3"/>
+      <c r="R56">
+        <f t="shared" si="7"/>
         <v>0.1382755</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="9">
+        <v>9.5472100649999998</v>
+      </c>
+      <c r="C57" s="1">
         <v>7.0533000000000001</v>
       </c>
-      <c r="C57" s="6">
+      <c r="D57" s="3">
         <v>19</v>
       </c>
-      <c r="D57" s="5">
+      <c r="E57" s="11">
+        <f t="shared" si="3"/>
+        <v>28.547210065000002</v>
+      </c>
+      <c r="F57" s="2">
         <v>1</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>3.5799999999999998E-3</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>-7.4226E-2</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>-0.16364600000000001</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>-0.101881</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>-0.195438</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>-0.141933</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>-7.2621000000000005E-2</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>-7.2345000000000007E-2</v>
       </c>
-      <c r="M57">
-        <f t="shared" si="0"/>
+      <c r="O57">
+        <f t="shared" si="5"/>
         <v>-3.5323E-2</v>
       </c>
-      <c r="N57">
-        <f t="shared" si="1"/>
+      <c r="P57">
+        <f t="shared" si="4"/>
         <v>-7.2483000000000006E-2</v>
       </c>
-      <c r="O57">
-        <f t="shared" si="2"/>
+      <c r="Q57">
+        <f t="shared" si="6"/>
         <v>-0.16868549999999999</v>
       </c>
-      <c r="P57">
-        <f t="shared" si="3"/>
+      <c r="R57">
+        <f t="shared" si="7"/>
         <v>-0.13276350000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="9">
+        <v>5.6497598370000004</v>
+      </c>
+      <c r="C58" s="1">
         <v>5.4255000000000004</v>
       </c>
-      <c r="C58" s="6">
+      <c r="D58" s="3">
         <v>20</v>
       </c>
-      <c r="D58" s="5">
+      <c r="E58" s="11">
+        <f t="shared" si="3"/>
+        <v>25.649759837000001</v>
+      </c>
+      <c r="F58" s="2">
         <v>1</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>8.0751000000000003E-2</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>1.0193000000000001E-2</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>7.3729000000000003E-2</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>-6.5180000000000004E-3</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>8.0515000000000003E-2</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>0.136959</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>8.9883000000000005E-2</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>4.8473000000000002E-2</v>
       </c>
-      <c r="M58">
-        <f t="shared" si="0"/>
+      <c r="O58">
+        <f t="shared" si="5"/>
         <v>4.5471999999999999E-2</v>
       </c>
-      <c r="N58">
-        <f t="shared" si="1"/>
+      <c r="P58">
+        <f t="shared" si="4"/>
         <v>6.9178000000000003E-2</v>
       </c>
-      <c r="O58">
-        <f t="shared" si="2"/>
+      <c r="Q58">
+        <f t="shared" si="6"/>
         <v>0.108737</v>
       </c>
-      <c r="P58">
-        <f t="shared" si="3"/>
+      <c r="R58">
+        <f t="shared" si="7"/>
         <v>3.3605500000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="9">
+        <v>9.2220832700000006</v>
+      </c>
+      <c r="C59" s="1">
         <v>7.1264000000000003</v>
       </c>
-      <c r="C59" s="6">
+      <c r="D59" s="3">
         <v>19</v>
       </c>
-      <c r="D59" s="5">
+      <c r="E59" s="11">
+        <f t="shared" si="3"/>
+        <v>28.222083269999999</v>
+      </c>
+      <c r="F59" s="2">
         <v>1</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>-4.9349999999999998E-2</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>8.9726E-2</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>-0.120354</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>2.1330999999999999E-2</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>-7.6049999999999998E-3</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>9.1889999999999999E-2</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>-4.326E-2</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>1.6598999999999999E-2</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="0"/>
+      <c r="O59">
+        <f t="shared" si="5"/>
         <v>2.0188000000000001E-2</v>
       </c>
-      <c r="N59">
-        <f t="shared" si="1"/>
+      <c r="P59">
+        <f t="shared" si="4"/>
         <v>-1.33305E-2</v>
       </c>
-      <c r="O59">
-        <f t="shared" si="2"/>
+      <c r="Q59">
+        <f t="shared" si="6"/>
         <v>4.2142499999999999E-2</v>
       </c>
-      <c r="P59">
-        <f t="shared" si="3"/>
+      <c r="R59">
+        <f t="shared" si="7"/>
         <v>-4.95115E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="9">
+        <v>9.0754258770000007</v>
+      </c>
+      <c r="C60" s="1">
         <v>8.3969000000000005</v>
       </c>
-      <c r="C60" s="6">
+      <c r="D60" s="3">
         <v>22</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E60" s="11">
+        <f t="shared" si="3"/>
+        <v>31.075425877000001</v>
+      </c>
+      <c r="F60" s="2">
         <v>1</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>7.5980000000000006E-2</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>-0.12099799999999999</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>0.151031</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>9.5702999999999996E-2</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>5.8187000000000003E-2</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>8.9312000000000002E-2</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>-4.6290000000000003E-3</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="M60">
-        <f t="shared" si="0"/>
+      <c r="O60">
+        <f t="shared" si="5"/>
         <v>-2.2508999999999994E-2</v>
       </c>
-      <c r="N60">
-        <f t="shared" si="1"/>
+      <c r="P60">
+        <f t="shared" si="4"/>
         <v>1.7735499999999998E-2</v>
       </c>
-      <c r="O60">
-        <f t="shared" si="2"/>
+      <c r="Q60">
+        <f t="shared" si="6"/>
         <v>7.3749499999999996E-2</v>
       </c>
-      <c r="P60">
-        <f t="shared" si="3"/>
+      <c r="R60">
+        <f t="shared" si="7"/>
         <v>0.123367</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="9">
+        <v>12.455561510000001</v>
+      </c>
+      <c r="C61" s="1">
         <v>10.875999999999999</v>
       </c>
-      <c r="C61" s="6">
+      <c r="D61" s="3">
         <v>18</v>
       </c>
-      <c r="D61" s="5">
+      <c r="E61" s="11">
+        <f t="shared" si="3"/>
+        <v>30.455561510000003</v>
+      </c>
+      <c r="F61" s="2">
         <v>1</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>0.293433</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>0.17433000000000001</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>0.13849800000000001</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>0.161245</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>0.16288</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>1.7403999999999999E-2</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>8.8067000000000006E-2</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>0.19259299999999999</v>
       </c>
-      <c r="M61">
-        <f t="shared" si="0"/>
+      <c r="O61">
+        <f t="shared" si="5"/>
         <v>0.23388150000000002</v>
       </c>
-      <c r="N61">
-        <f t="shared" si="1"/>
+      <c r="P61">
+        <f t="shared" si="4"/>
         <v>0.14033000000000001</v>
       </c>
-      <c r="O61">
-        <f t="shared" si="2"/>
+      <c r="Q61">
+        <f t="shared" si="6"/>
         <v>9.0142E-2</v>
       </c>
-      <c r="P61">
-        <f t="shared" si="3"/>
+      <c r="R61">
+        <f t="shared" si="7"/>
         <v>0.14987149999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="9">
+        <v>9.5907081900000009</v>
+      </c>
+      <c r="C62" s="1">
         <v>8.4403000000000006</v>
       </c>
-      <c r="C62" s="6">
+      <c r="D62" s="3">
         <v>32</v>
       </c>
-      <c r="D62" s="5">
+      <c r="E62" s="11">
+        <f t="shared" si="3"/>
+        <v>41.590708190000001</v>
+      </c>
+      <c r="F62" s="2">
         <v>1</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>-6.2100000000000002E-4</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>-5.6236000000000001E-2</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>-6.9070999999999994E-2</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>-0.123275</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>-0.114108</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>-0.12833700000000001</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>-6.1436999999999999E-2</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>-6.5240999999999993E-2</v>
       </c>
-      <c r="M62">
-        <f t="shared" si="0"/>
+      <c r="O62">
+        <f t="shared" si="5"/>
         <v>-2.8428500000000002E-2</v>
       </c>
-      <c r="N62">
-        <f t="shared" si="1"/>
+      <c r="P62">
+        <f t="shared" si="4"/>
         <v>-6.3338999999999993E-2</v>
       </c>
-      <c r="O62">
-        <f t="shared" si="2"/>
+      <c r="Q62">
+        <f t="shared" si="6"/>
         <v>-0.12122250000000001</v>
       </c>
-      <c r="P62">
-        <f t="shared" si="3"/>
+      <c r="R62">
+        <f t="shared" si="7"/>
         <v>-9.6172999999999995E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="9">
+        <v>8.0717615449999993</v>
+      </c>
+      <c r="C63" s="1">
         <v>6.7473000000000001</v>
       </c>
-      <c r="C63" s="6">
+      <c r="D63" s="3">
         <v>20</v>
       </c>
-      <c r="D63" s="5">
+      <c r="E63" s="11">
+        <f t="shared" si="3"/>
+        <v>28.071761545000001</v>
+      </c>
+      <c r="F63" s="2">
         <v>1</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>3.9376000000000001E-2</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>-0.102991</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>0.11569400000000001</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>0.19463</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>6.3961000000000004E-2</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>6.6267999999999994E-2</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>2.8617E-2</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>-1.9386E-2</v>
       </c>
-      <c r="M63">
-        <f t="shared" si="0"/>
+      <c r="O63">
+        <f t="shared" si="5"/>
         <v>-3.1807500000000002E-2</v>
       </c>
-      <c r="N63">
-        <f t="shared" si="1"/>
+      <c r="P63">
+        <f t="shared" si="4"/>
         <v>4.6154999999999998E-3</v>
       </c>
-      <c r="O63">
-        <f t="shared" si="2"/>
+      <c r="Q63">
+        <f t="shared" si="6"/>
         <v>6.5114499999999992E-2</v>
       </c>
-      <c r="P63">
-        <f t="shared" si="3"/>
+      <c r="R63">
+        <f t="shared" si="7"/>
         <v>0.15516199999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="9">
+        <v>7.342681936</v>
+      </c>
+      <c r="C64" s="1">
         <v>5.7484999999999999</v>
       </c>
-      <c r="C64" s="6">
+      <c r="D64" s="3">
         <v>20</v>
       </c>
-      <c r="D64" s="5">
+      <c r="E64" s="11">
+        <f t="shared" si="3"/>
+        <v>27.342681935999998</v>
+      </c>
+      <c r="F64" s="2">
         <v>1</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>2.3073E-2</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>0.18643399999999999</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>-8.8548000000000002E-2</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>-4.7421999999999999E-2</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>8.3458000000000004E-2</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>0.19715199999999999</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>2.1512E-2</v>
       </c>
-      <c r="L64">
+      <c r="N64">
         <v>8.5773000000000002E-2</v>
       </c>
-      <c r="M64">
-        <f t="shared" si="0"/>
+      <c r="O64">
+        <f t="shared" si="5"/>
         <v>0.1047535</v>
       </c>
-      <c r="N64">
-        <f t="shared" si="1"/>
+      <c r="P64">
+        <f t="shared" si="4"/>
         <v>5.3642500000000003E-2</v>
       </c>
-      <c r="O64">
-        <f t="shared" si="2"/>
+      <c r="Q64">
+        <f t="shared" si="6"/>
         <v>0.14030500000000001</v>
       </c>
-      <c r="P64">
-        <f t="shared" si="3"/>
+      <c r="R64">
+        <f t="shared" si="7"/>
         <v>-6.7985000000000004E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="9">
+        <v>6.4145326760000003</v>
+      </c>
+      <c r="C65" s="1">
         <v>6.6740000000000004</v>
       </c>
-      <c r="C65" s="6">
+      <c r="D65" s="3">
         <v>18</v>
       </c>
-      <c r="D65" s="5">
+      <c r="E65" s="11">
+        <f t="shared" si="3"/>
+        <v>24.414532676</v>
+      </c>
+      <c r="F65" s="2">
         <v>1</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>3.8468000000000002E-2</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>2.212E-3</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>0.136208</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>0.122512</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>1.6688000000000001E-2</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>0.18332100000000001</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>2.7618E-2</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>6.8507999999999999E-2</v>
       </c>
-      <c r="M65">
-        <f t="shared" si="0"/>
+      <c r="O65">
+        <f t="shared" si="5"/>
         <v>2.034E-2</v>
       </c>
-      <c r="N65">
-        <f t="shared" si="1"/>
+      <c r="P65">
+        <f t="shared" si="4"/>
         <v>4.8063000000000002E-2</v>
       </c>
-      <c r="O65">
-        <f t="shared" si="2"/>
+      <c r="Q65">
+        <f t="shared" si="6"/>
         <v>0.10000450000000001</v>
       </c>
-      <c r="P65">
-        <f t="shared" si="3"/>
+      <c r="R65">
+        <f t="shared" si="7"/>
         <v>0.12936</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="9">
+        <v>7.5935271159999997</v>
+      </c>
+      <c r="C66" s="1">
         <v>7.1413000000000002</v>
       </c>
-      <c r="C66" s="6">
+      <c r="D66" s="3">
         <v>35</v>
       </c>
-      <c r="D66" s="5">
+      <c r="E66" s="11">
+        <f t="shared" si="3"/>
+        <v>42.593527115999997</v>
+      </c>
+      <c r="F66" s="2">
         <v>1</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>-4.3165000000000002E-2</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>2.3671000000000001E-2</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>0.18018500000000001</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>0.156164</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>0.151338</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>0.28891099999999997</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>5.2230000000000002E-3</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>4.7199999999999998E-4</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="0"/>
+      <c r="O66">
+        <f t="shared" ref="O66:O71" si="8">AVERAGE(G66,H66)</f>
         <v>-9.7470000000000005E-3</v>
       </c>
-      <c r="N66">
-        <f t="shared" si="1"/>
+      <c r="P66">
+        <f t="shared" si="4"/>
         <v>2.8475000000000002E-3</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="2"/>
+      <c r="Q66">
+        <f t="shared" si="6"/>
         <v>0.2201245</v>
       </c>
-      <c r="P66">
-        <f t="shared" si="3"/>
+      <c r="R66">
+        <f t="shared" si="7"/>
         <v>0.1681745</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="9">
+        <v>6.0862399470000002</v>
+      </c>
+      <c r="C67" s="1">
         <v>5.1193</v>
       </c>
-      <c r="C67" s="6">
+      <c r="D67" s="3">
         <v>27</v>
       </c>
-      <c r="D67" s="5">
+      <c r="E67" s="11">
+        <f t="shared" ref="E67:E71" si="9">SUM(A67,B67,D67)</f>
+        <v>33.086239947000003</v>
+      </c>
+      <c r="F67" s="2">
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>0.13015099999999999</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>0.124375</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>7.8139999999999998E-3</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>-4.5734999999999998E-2</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>2.6144000000000001E-2</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>-4.6249999999999998E-3</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>5.6363000000000003E-2</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>7.8109999999999999E-2</v>
       </c>
-      <c r="M67">
-        <f t="shared" ref="M67:M71" si="4">AVERAGE(E67,F67)</f>
+      <c r="O67">
+        <f t="shared" si="8"/>
         <v>0.12726299999999999</v>
       </c>
-      <c r="N67">
-        <f t="shared" ref="N67:N71" si="5">AVERAGE(K67,L67)</f>
+      <c r="P67">
+        <f t="shared" ref="P67:P71" si="10">AVERAGE(M67,N67)</f>
         <v>6.7236500000000005E-2</v>
       </c>
-      <c r="O67">
-        <f t="shared" ref="O67:O71" si="6">AVERAGE(I67,J67)</f>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q71" si="11">AVERAGE(K67,L67)</f>
         <v>1.07595E-2</v>
       </c>
-      <c r="P67">
-        <f t="shared" ref="P67:P71" si="7">AVERAGE(G67,H67)</f>
+      <c r="R67">
+        <f t="shared" ref="R67:R71" si="12">AVERAGE(I67,J67)</f>
         <v>-1.8960499999999998E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="9">
+        <v>7.081494341</v>
+      </c>
+      <c r="C68" s="1">
         <v>6.8760000000000003</v>
       </c>
-      <c r="C68" s="6">
+      <c r="D68" s="3">
         <v>21</v>
       </c>
-      <c r="D68" s="5">
+      <c r="E68" s="11">
+        <f t="shared" si="9"/>
+        <v>28.081494340999999</v>
+      </c>
+      <c r="F68" s="2">
         <v>1</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>0.30115599999999998</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>0.21249899999999999</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>0.16584499999999999</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>0.18754899999999999</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>-4.0544999999999998E-2</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>-7.2652999999999995E-2</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>-7.5204999999999994E-2</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>3.7670000000000002E-2</v>
       </c>
-      <c r="M68">
-        <f t="shared" si="4"/>
+      <c r="O68">
+        <f t="shared" si="8"/>
         <v>0.25682749999999999</v>
       </c>
-      <c r="N68">
-        <f t="shared" si="5"/>
+      <c r="P68">
+        <f t="shared" si="10"/>
         <v>-1.8767499999999996E-2</v>
       </c>
-      <c r="O68">
-        <f t="shared" si="6"/>
+      <c r="Q68">
+        <f t="shared" si="11"/>
         <v>-5.6598999999999997E-2</v>
       </c>
-      <c r="P68">
-        <f t="shared" si="7"/>
+      <c r="R68">
+        <f t="shared" si="12"/>
         <v>0.17669699999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="9">
+        <v>10.586067829999999</v>
+      </c>
+      <c r="C69" s="1">
         <v>10.682600000000001</v>
       </c>
-      <c r="C69" s="6">
+      <c r="D69" s="3">
         <v>22</v>
       </c>
-      <c r="D69" s="5">
+      <c r="E69" s="11">
+        <f t="shared" si="9"/>
+        <v>32.586067829999998</v>
+      </c>
+      <c r="F69" s="2">
         <v>1</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>-0.16614799999999999</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>3.4047000000000001E-2</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>-5.3992999999999999E-2</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>-9.8267999999999994E-2</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>-6.8015999999999993E-2</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>-8.6794999999999997E-2</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>-3.8662000000000002E-2</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>6.2628000000000003E-2</v>
       </c>
-      <c r="M69">
-        <f t="shared" si="4"/>
+      <c r="O69">
+        <f t="shared" si="8"/>
         <v>-6.6050499999999998E-2</v>
       </c>
-      <c r="N69">
-        <f t="shared" si="5"/>
+      <c r="P69">
+        <f t="shared" si="10"/>
         <v>1.1983000000000001E-2</v>
       </c>
-      <c r="O69">
-        <f t="shared" si="6"/>
+      <c r="Q69">
+        <f t="shared" si="11"/>
         <v>-7.7405499999999988E-2</v>
       </c>
-      <c r="P69">
-        <f t="shared" si="7"/>
+      <c r="R69">
+        <f t="shared" si="12"/>
         <v>-7.613049999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="9">
+        <v>11.05144366</v>
+      </c>
+      <c r="C70" s="1">
         <v>9.7484000000000002</v>
       </c>
-      <c r="C70" s="6">
+      <c r="D70" s="3">
         <v>23</v>
       </c>
-      <c r="D70" s="5">
+      <c r="E70" s="11">
+        <f t="shared" si="9"/>
+        <v>34.051443660000004</v>
+      </c>
+      <c r="F70" s="2">
         <v>1</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>-0.26041500000000001</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>-0.20413899999999999</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>-7.9951999999999995E-2</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>2.2464000000000001E-2</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>1.6508999999999999E-2</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>-0.11378000000000001</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>-0.16514200000000001</v>
       </c>
-      <c r="L70">
+      <c r="N70">
         <v>-5.527E-2</v>
       </c>
-      <c r="M70">
-        <f t="shared" si="4"/>
+      <c r="O70">
+        <f t="shared" si="8"/>
         <v>-0.23227700000000001</v>
       </c>
-      <c r="N70">
-        <f t="shared" si="5"/>
+      <c r="P70">
+        <f t="shared" si="10"/>
         <v>-0.110206</v>
       </c>
-      <c r="O70">
-        <f t="shared" si="6"/>
+      <c r="Q70">
+        <f t="shared" si="11"/>
         <v>-4.8635500000000005E-2</v>
       </c>
-      <c r="P70">
-        <f t="shared" si="7"/>
+      <c r="R70">
+        <f t="shared" si="12"/>
         <v>-2.8743999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="14">
+        <v>6.4567896820000001</v>
+      </c>
+      <c r="C71" s="4">
         <v>6.3623000000000003</v>
       </c>
-      <c r="C71" s="10">
+      <c r="D71" s="7">
         <v>19</v>
       </c>
-      <c r="D71" s="8">
+      <c r="E71" s="12">
+        <f t="shared" si="9"/>
+        <v>25.456789682</v>
+      </c>
+      <c r="F71" s="5">
         <v>1</v>
       </c>
-      <c r="E71" s="9">
+      <c r="G71" s="6">
         <v>0.214334</v>
       </c>
-      <c r="F71" s="9">
+      <c r="H71" s="6">
         <v>0.114554</v>
       </c>
-      <c r="G71" s="9">
+      <c r="I71" s="6">
         <v>2.9975999999999999E-2</v>
       </c>
-      <c r="H71" s="9">
+      <c r="J71" s="6">
         <v>-3.39E-4</v>
       </c>
-      <c r="I71" s="9">
+      <c r="K71" s="6">
         <v>1.6882000000000001E-2</v>
       </c>
-      <c r="J71" s="9">
+      <c r="L71" s="6">
         <v>-3.3007000000000002E-2</v>
       </c>
-      <c r="K71" s="9">
+      <c r="M71" s="6">
         <v>0.13294400000000001</v>
       </c>
-      <c r="L71" s="9">
+      <c r="N71" s="6">
         <v>0.190882</v>
       </c>
-      <c r="M71" s="9">
-        <f t="shared" si="4"/>
+      <c r="O71" s="6">
+        <f t="shared" si="8"/>
         <v>0.16444400000000001</v>
       </c>
-      <c r="N71" s="9">
-        <f t="shared" si="5"/>
+      <c r="P71" s="6">
+        <f t="shared" si="10"/>
         <v>0.161913</v>
       </c>
-      <c r="O71" s="9">
-        <f t="shared" si="6"/>
+      <c r="Q71" s="6">
+        <f t="shared" si="11"/>
         <v>-8.0625000000000002E-3</v>
       </c>
-      <c r="P71" s="9">
-        <f t="shared" si="7"/>
+      <c r="R71" s="6">
+        <f t="shared" si="12"/>
         <v>1.48185E-2</v>
       </c>
     </row>

--- a/NMxTotalUsexAccuracy/data/NMxPositiveAccuracy_anova.xlsx
+++ b/NMxTotalUsexAccuracy/data/NMxPositiveAccuracy_anova.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxTotalUsexAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F90551-BE8B-DC44-9948-42DD9784C1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55433F8-9CCD-7246-BA17-B9930C14EE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28300" yWindow="1300" windowWidth="22080" windowHeight="14780" xr2:uid="{79B66A3E-72FC-BE4A-89D9-CD830D2D4145}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -366,12 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -389,6 +383,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,65 +700,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31723B7A-45ED-944A-9BE0-99732653F64A}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -774,15 +769,14 @@
       <c r="B2" s="9">
         <v>7.0149834110000002</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>6.6323999999999996</v>
       </c>
       <c r="D2" s="3">
         <v>20</v>
       </c>
-      <c r="E2" s="11">
-        <f>SUM(A2,B2,D2)</f>
-        <v>27.014983410999999</v>
+      <c r="E2" s="18">
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -841,9 +835,8 @@
       <c r="D3" s="3">
         <v>23</v>
       </c>
-      <c r="E3" s="11">
-        <f t="shared" ref="E3:E66" si="3">SUM(A3,B3,D3)</f>
-        <v>28.283762746000001</v>
+      <c r="E3" s="18">
+        <v>57</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -877,7 +870,7 @@
         <v>-4.4757000000000005E-2</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="4">AVERAGE(M3,N3)</f>
+        <f t="shared" ref="P3:P66" si="3">AVERAGE(M3,N3)</f>
         <v>1.8258999999999997E-2</v>
       </c>
       <c r="Q3">
@@ -902,9 +895,8 @@
       <c r="D4" s="3">
         <v>26</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" si="3"/>
-        <v>37.89285005</v>
+      <c r="E4" s="18">
+        <v>23</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -938,7 +930,7 @@
         <v>-8.9199000000000001E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.5273E-2</v>
       </c>
       <c r="Q4">
@@ -963,9 +955,8 @@
       <c r="D5" s="3">
         <v>34</v>
       </c>
-      <c r="E5" s="11">
-        <f t="shared" si="3"/>
-        <v>41.470071554999997</v>
+      <c r="E5" s="18">
+        <v>52</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -999,7 +990,7 @@
         <v>-2.5585499999999997E-2</v>
       </c>
       <c r="P5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.7536999999999995E-2</v>
       </c>
       <c r="Q5">
@@ -1024,9 +1015,8 @@
       <c r="D6" s="3">
         <v>21</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" si="3"/>
-        <v>30.892294937999999</v>
+      <c r="E6" s="18">
+        <v>28</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -1060,7 +1050,7 @@
         <v>-0.30197600000000002</v>
       </c>
       <c r="P6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.5526000000000004E-2</v>
       </c>
       <c r="Q6">
@@ -1085,9 +1075,8 @@
       <c r="D7" s="3">
         <v>23</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" si="3"/>
-        <v>33.030146940000002</v>
+      <c r="E7" s="18">
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1121,7 +1110,7 @@
         <v>-0.17773949999999999</v>
       </c>
       <c r="P7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-9.7758000000000012E-2</v>
       </c>
       <c r="Q7">
@@ -1146,9 +1135,8 @@
       <c r="D8" s="3">
         <v>23</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" si="3"/>
-        <v>29.342077498999998</v>
+      <c r="E8" s="18">
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1182,7 +1170,7 @@
         <v>-4.2699500000000001E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.3605000000000007E-3</v>
       </c>
       <c r="Q8">
@@ -1207,9 +1195,8 @@
       <c r="D9" s="3">
         <v>20</v>
       </c>
-      <c r="E9" s="11">
-        <f t="shared" si="3"/>
-        <v>24.688248938000001</v>
+      <c r="E9" s="18">
+        <v>28</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1243,7 +1230,7 @@
         <v>1.8943499999999999E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.595100000000001E-2</v>
       </c>
       <c r="Q9">
@@ -1268,9 +1255,8 @@
       <c r="D10" s="3">
         <v>19</v>
       </c>
-      <c r="E10" s="11">
-        <f t="shared" si="3"/>
-        <v>29.418130130000002</v>
+      <c r="E10" s="18">
+        <v>2</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1304,7 +1290,7 @@
         <v>-1.8413499999999999E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.7177500000000002E-2</v>
       </c>
       <c r="Q10">
@@ -1329,9 +1315,8 @@
       <c r="D11" s="3">
         <v>18</v>
       </c>
-      <c r="E11" s="11">
-        <f t="shared" si="3"/>
-        <v>26.201286164999999</v>
+      <c r="E11" s="18">
+        <v>3</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1365,7 +1350,7 @@
         <v>-3.0740999999999997E-2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.23769400000000002</v>
       </c>
       <c r="Q11">
@@ -1390,9 +1375,8 @@
       <c r="D12" s="3">
         <v>21</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" si="3"/>
-        <v>32.849809</v>
+      <c r="E12" s="18">
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -1426,7 +1410,7 @@
         <v>-0.235064</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.136906</v>
       </c>
       <c r="Q12">
@@ -1451,9 +1435,8 @@
       <c r="D13" s="3">
         <v>21</v>
       </c>
-      <c r="E13" s="11">
-        <f t="shared" si="3"/>
-        <v>29.547309888000001</v>
+      <c r="E13" s="18">
+        <v>12</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1487,7 +1470,7 @@
         <v>-0.27285700000000002</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.22975400000000001</v>
       </c>
       <c r="Q13">
@@ -1512,9 +1495,8 @@
       <c r="D14" s="3">
         <v>19</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="3"/>
-        <v>27.887442010999997</v>
+      <c r="E14" s="18">
+        <v>8</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -1548,7 +1530,7 @@
         <v>-8.2378000000000007E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2757500000000001E-2</v>
       </c>
       <c r="Q14">
@@ -1573,9 +1555,8 @@
       <c r="D15" s="3">
         <v>19</v>
       </c>
-      <c r="E15" s="11">
-        <f t="shared" si="3"/>
-        <v>27.222968737000002</v>
+      <c r="E15" s="18">
+        <v>8</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -1609,7 +1590,7 @@
         <v>9.95085E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.3800499999999996E-2</v>
       </c>
       <c r="Q15">
@@ -1634,9 +1615,8 @@
       <c r="D16" s="3">
         <v>21</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" si="3"/>
-        <v>30.397520628000002</v>
+      <c r="E16" s="18">
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -1670,7 +1650,7 @@
         <v>-4.1527000000000001E-2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-7.9314999999999997E-2</v>
       </c>
       <c r="Q16">
@@ -1695,9 +1675,8 @@
       <c r="D17" s="3">
         <v>18</v>
       </c>
-      <c r="E17" s="11">
-        <f t="shared" si="3"/>
-        <v>26.267269286999998</v>
+      <c r="E17" s="18">
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -1731,7 +1710,7 @@
         <v>-0.1514675</v>
       </c>
       <c r="P17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-3.9558999999999997E-2</v>
       </c>
       <c r="Q17">
@@ -1756,9 +1735,8 @@
       <c r="D18" s="3">
         <v>20</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" si="3"/>
-        <v>27.722397643000001</v>
+      <c r="E18" s="18">
+        <v>24</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -1792,7 +1770,7 @@
         <v>6.8585000000000007E-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.7403E-2</v>
       </c>
       <c r="Q18">
@@ -1817,9 +1795,8 @@
       <c r="D19" s="3">
         <v>21</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="3"/>
-        <v>33.399481039999998</v>
+      <c r="E19" s="18">
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -1853,7 +1830,7 @@
         <v>-5.9248000000000002E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.4795999999999996E-2</v>
       </c>
       <c r="Q19">
@@ -1878,9 +1855,8 @@
       <c r="D20" s="3">
         <v>20</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" si="3"/>
-        <v>28.407680970999998</v>
+      <c r="E20" s="18">
+        <v>50</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -1914,7 +1890,7 @@
         <v>1.0822E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.7061E-2</v>
       </c>
       <c r="Q20">
@@ -1939,9 +1915,8 @@
       <c r="D21" s="3">
         <v>19</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" si="3"/>
-        <v>27.538233206000001</v>
+      <c r="E21" s="18">
+        <v>32</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -1975,7 +1950,7 @@
         <v>0.1214655</v>
       </c>
       <c r="P21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.6637499999999998E-2</v>
       </c>
       <c r="Q21">
@@ -2000,9 +1975,8 @@
       <c r="D22" s="3">
         <v>19</v>
       </c>
-      <c r="E22" s="11">
-        <f t="shared" si="3"/>
-        <v>28.547210065000002</v>
+      <c r="E22" s="18">
+        <v>0</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2036,7 +2010,7 @@
         <v>-0.163326</v>
       </c>
       <c r="P22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.132187</v>
       </c>
       <c r="Q22">
@@ -2061,9 +2035,8 @@
       <c r="D23" s="3">
         <v>20</v>
       </c>
-      <c r="E23" s="11">
-        <f t="shared" si="3"/>
-        <v>25.649759837000001</v>
+      <c r="E23" s="18">
+        <v>32</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2097,7 +2070,7 @@
         <v>-7.0611499999999994E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.1749999999999999E-3</v>
       </c>
       <c r="Q23">
@@ -2122,9 +2095,8 @@
       <c r="D24" s="3">
         <v>19</v>
       </c>
-      <c r="E24" s="11">
-        <f t="shared" si="3"/>
-        <v>28.222083269999999</v>
+      <c r="E24" s="18">
+        <v>42</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2158,7 +2130,7 @@
         <v>-9.2540499999999998E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.1017605</v>
       </c>
       <c r="Q24">
@@ -2183,9 +2155,8 @@
       <c r="D25" s="3">
         <v>22</v>
       </c>
-      <c r="E25" s="11">
-        <f t="shared" si="3"/>
-        <v>31.075425877000001</v>
+      <c r="E25" s="18">
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2219,7 +2190,7 @@
         <v>-0.17187150000000001</v>
       </c>
       <c r="P25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.1010665</v>
       </c>
       <c r="Q25">
@@ -2244,9 +2215,8 @@
       <c r="D26" s="3">
         <v>18</v>
       </c>
-      <c r="E26" s="11">
-        <f t="shared" si="3"/>
-        <v>30.455561510000003</v>
+      <c r="E26" s="18">
+        <v>25</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -2280,7 +2250,7 @@
         <v>-1.6561000000000003E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.1922000000000003E-2</v>
       </c>
       <c r="Q26">
@@ -2305,9 +2275,8 @@
       <c r="D27" s="3">
         <v>32</v>
       </c>
-      <c r="E27" s="11">
-        <f t="shared" si="3"/>
-        <v>41.590708190000001</v>
+      <c r="E27" s="18">
+        <v>0</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -2341,7 +2310,7 @@
         <v>-0.162936</v>
       </c>
       <c r="P27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.14506449999999999</v>
       </c>
       <c r="Q27">
@@ -2366,9 +2335,8 @@
       <c r="D28" s="3">
         <v>20</v>
       </c>
-      <c r="E28" s="11">
-        <f t="shared" si="3"/>
-        <v>28.071761545000001</v>
+      <c r="E28" s="18">
+        <v>19</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -2402,7 +2370,7 @@
         <v>-0.15967600000000001</v>
       </c>
       <c r="P28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.6128500000000003E-2</v>
       </c>
       <c r="Q28">
@@ -2427,9 +2395,8 @@
       <c r="D29" s="3">
         <v>20</v>
       </c>
-      <c r="E29" s="11">
-        <f t="shared" si="3"/>
-        <v>27.342681935999998</v>
+      <c r="E29" s="18">
+        <v>55</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -2463,7 +2430,7 @@
         <v>-4.1850999999999999E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.12528</v>
       </c>
       <c r="Q29">
@@ -2488,9 +2455,8 @@
       <c r="D30" s="3">
         <v>18</v>
       </c>
-      <c r="E30" s="11">
-        <f t="shared" si="3"/>
-        <v>24.414532676</v>
+      <c r="E30" s="18">
+        <v>3</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -2524,7 +2490,7 @@
         <v>-0.19819799999999999</v>
       </c>
       <c r="P30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-7.5264500000000012E-2</v>
       </c>
       <c r="Q30">
@@ -2549,9 +2515,8 @@
       <c r="D31" s="3">
         <v>35</v>
       </c>
-      <c r="E31" s="11">
-        <f t="shared" si="3"/>
-        <v>42.593527115999997</v>
+      <c r="E31" s="18">
+        <v>0</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -2585,7 +2550,7 @@
         <v>-0.19357799999999997</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-1.7041999999999998E-2</v>
       </c>
       <c r="Q31">
@@ -2610,9 +2575,8 @@
       <c r="D32" s="3">
         <v>27</v>
       </c>
-      <c r="E32" s="11">
-        <f t="shared" si="3"/>
-        <v>33.086239947000003</v>
+      <c r="E32" s="18">
+        <v>43</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -2646,7 +2610,7 @@
         <v>2.3279000000000001E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.7189500000000002E-2</v>
       </c>
       <c r="Q32">
@@ -2671,9 +2635,8 @@
       <c r="D33" s="3">
         <v>21</v>
       </c>
-      <c r="E33" s="11">
-        <f t="shared" si="3"/>
-        <v>28.081494340999999</v>
+      <c r="E33" s="18">
+        <v>42</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -2707,7 +2670,7 @@
         <v>-0.140926</v>
       </c>
       <c r="P33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.13221749999999999</v>
       </c>
       <c r="Q33">
@@ -2732,9 +2695,8 @@
       <c r="D34" s="3">
         <v>22</v>
       </c>
-      <c r="E34" s="11">
-        <f t="shared" si="3"/>
-        <v>32.586067829999998</v>
+      <c r="E34" s="18">
+        <v>35</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -2764,19 +2726,19 @@
         <v>0.12664800000000001</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O65" si="5">AVERAGE(G34,H34)</f>
+        <f t="shared" ref="O34:O65" si="4">AVERAGE(G34,H34)</f>
         <v>9.9430000000000004E-3</v>
       </c>
       <c r="P34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.12137000000000001</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q66" si="6">AVERAGE(K34,L34)</f>
+        <f t="shared" ref="Q34:Q66" si="5">AVERAGE(K34,L34)</f>
         <v>-0.21374500000000002</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34:R66" si="7">AVERAGE(I34,J34)</f>
+        <f t="shared" ref="R34:R66" si="6">AVERAGE(I34,J34)</f>
         <v>-0.11158849999999999</v>
       </c>
     </row>
@@ -2793,9 +2755,8 @@
       <c r="D35" s="3">
         <v>23</v>
       </c>
-      <c r="E35" s="11">
-        <f t="shared" si="3"/>
-        <v>34.051443660000004</v>
+      <c r="E35" s="18">
+        <v>9</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -2825,19 +2786,19 @@
         <v>-8.1860000000000002E-2</v>
       </c>
       <c r="O35">
+        <f t="shared" si="4"/>
+        <v>-0.16462749999999998</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>-0.139573</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="5"/>
-        <v>-0.16462749999999998</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="4"/>
-        <v>-0.139573</v>
-      </c>
-      <c r="Q35">
+        <v>2.1119999999999993E-3</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="6"/>
-        <v>2.1119999999999993E-3</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="7"/>
         <v>4.7274000000000004E-2</v>
       </c>
     </row>
@@ -2854,9 +2815,8 @@
       <c r="D36" s="10">
         <v>19</v>
       </c>
-      <c r="E36" s="11">
-        <f t="shared" si="3"/>
-        <v>25.456789682</v>
+      <c r="E36" s="18">
+        <v>26</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -2886,19 +2846,19 @@
         <v>6.8223000000000006E-2</v>
       </c>
       <c r="O36">
+        <f t="shared" si="4"/>
+        <v>5.8689999999999999E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>6.0819499999999999E-2</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="5"/>
-        <v>5.8689999999999999E-2</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="4"/>
-        <v>6.0819499999999999E-2</v>
-      </c>
-      <c r="Q36">
+        <v>-4.3700000000000003E-2</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="6"/>
-        <v>-4.3700000000000003E-2</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="7"/>
         <v>1.7628499999999998E-2</v>
       </c>
     </row>
@@ -2915,9 +2875,8 @@
       <c r="D37" s="3">
         <v>20</v>
       </c>
-      <c r="E37" s="11">
-        <f>SUM(A37,B37,D37)</f>
-        <v>27.014983410999999</v>
+      <c r="E37" s="18">
+        <v>24</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -2947,19 +2906,19 @@
         <v>6.9194000000000006E-2</v>
       </c>
       <c r="O37">
+        <f t="shared" si="4"/>
+        <v>-0.1300385</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>4.3566000000000001E-2</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="5"/>
-        <v>-0.1300385</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="4"/>
-        <v>4.3566000000000001E-2</v>
-      </c>
-      <c r="Q37">
+        <v>-2.8499E-2</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="6"/>
-        <v>-2.8499E-2</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="7"/>
         <v>9.0135999999999994E-2</v>
       </c>
     </row>
@@ -2976,9 +2935,8 @@
       <c r="D38" s="3">
         <v>23</v>
       </c>
-      <c r="E38" s="11">
-        <f t="shared" si="3"/>
-        <v>28.283762746000001</v>
+      <c r="E38" s="18">
+        <v>57</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -3008,19 +2966,19 @@
         <v>9.2760999999999996E-2</v>
       </c>
       <c r="O38">
+        <f t="shared" si="4"/>
+        <v>0.20445249999999998</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>0.14322399999999999</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="5"/>
-        <v>0.20445249999999998</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="4"/>
-        <v>0.14322399999999999</v>
-      </c>
-      <c r="Q38">
+        <v>0.10961900000000001</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="6"/>
-        <v>0.10961900000000001</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="7"/>
         <v>7.9495999999999997E-2</v>
       </c>
     </row>
@@ -3037,9 +2995,8 @@
       <c r="D39" s="3">
         <v>26</v>
       </c>
-      <c r="E39" s="11">
-        <f t="shared" si="3"/>
-        <v>37.89285005</v>
+      <c r="E39" s="18">
+        <v>23</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -3069,19 +3026,19 @@
         <v>-6.4127000000000003E-2</v>
       </c>
       <c r="O39">
+        <f t="shared" si="4"/>
+        <v>-0.1692205</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>-4.1827500000000004E-2</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="5"/>
-        <v>-0.1692205</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="4"/>
-        <v>-4.1827500000000004E-2</v>
-      </c>
-      <c r="Q39">
+        <v>0.13337350000000001</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="6"/>
-        <v>0.13337350000000001</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="7"/>
         <v>0.12923599999999999</v>
       </c>
     </row>
@@ -3098,9 +3055,8 @@
       <c r="D40" s="3">
         <v>34</v>
       </c>
-      <c r="E40" s="11">
-        <f t="shared" si="3"/>
-        <v>41.470071554999997</v>
+      <c r="E40" s="18">
+        <v>52</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -3130,19 +3086,19 @@
         <v>9.3731999999999996E-2</v>
       </c>
       <c r="O40">
+        <f t="shared" si="4"/>
+        <v>0.2122675</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>8.5449499999999998E-2</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="5"/>
-        <v>0.2122675</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="4"/>
-        <v>8.5449499999999998E-2</v>
-      </c>
-      <c r="Q40">
+        <v>0.1814935</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="6"/>
-        <v>0.1814935</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="7"/>
         <v>8.39255E-2</v>
       </c>
     </row>
@@ -3159,9 +3115,8 @@
       <c r="D41" s="3">
         <v>21</v>
       </c>
-      <c r="E41" s="11">
-        <f t="shared" si="3"/>
-        <v>30.892294937999999</v>
+      <c r="E41" s="18">
+        <v>28</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
@@ -3191,19 +3146,19 @@
         <v>-1.4874999999999999E-2</v>
       </c>
       <c r="O41">
+        <f t="shared" si="4"/>
+        <v>-0.14957500000000001</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>2.2869500000000001E-2</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="5"/>
-        <v>-0.14957500000000001</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="4"/>
-        <v>2.2869500000000001E-2</v>
-      </c>
-      <c r="Q41">
+        <v>0.15199850000000001</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="6"/>
-        <v>0.15199850000000001</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="7"/>
         <v>0.19106049999999999</v>
       </c>
     </row>
@@ -3220,9 +3175,8 @@
       <c r="D42" s="3">
         <v>23</v>
       </c>
-      <c r="E42" s="11">
-        <f t="shared" si="3"/>
-        <v>33.030146940000002</v>
+      <c r="E42" s="18">
+        <v>1</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3252,19 +3206,19 @@
         <v>7.8172000000000005E-2</v>
       </c>
       <c r="O42">
+        <f t="shared" si="4"/>
+        <v>2.5348500000000003E-2</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="3"/>
+        <v>3.6233500000000002E-2</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="5"/>
-        <v>2.5348500000000003E-2</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="4"/>
-        <v>3.6233500000000002E-2</v>
-      </c>
-      <c r="Q42">
+        <v>-4.3002499999999999E-2</v>
+      </c>
+      <c r="R42">
         <f t="shared" si="6"/>
-        <v>-4.3002499999999999E-2</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="7"/>
         <v>-1.8894000000000001E-2</v>
       </c>
     </row>
@@ -3281,9 +3235,8 @@
       <c r="D43" s="3">
         <v>23</v>
       </c>
-      <c r="E43" s="11">
-        <f t="shared" si="3"/>
-        <v>29.342077498999998</v>
+      <c r="E43" s="18">
+        <v>0</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -3313,19 +3266,19 @@
         <v>0.10079100000000001</v>
       </c>
       <c r="O43">
+        <f t="shared" si="4"/>
+        <v>2.6543500000000001E-2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>5.2115500000000002E-2</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="5"/>
-        <v>2.6543500000000001E-2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="4"/>
-        <v>5.2115500000000002E-2</v>
-      </c>
-      <c r="Q43">
+        <v>0.1353705</v>
+      </c>
+      <c r="R43">
         <f t="shared" si="6"/>
-        <v>0.1353705</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="7"/>
         <v>0.1074295</v>
       </c>
     </row>
@@ -3342,9 +3295,8 @@
       <c r="D44" s="3">
         <v>20</v>
       </c>
-      <c r="E44" s="11">
-        <f t="shared" si="3"/>
-        <v>24.688248938000001</v>
+      <c r="E44" s="18">
+        <v>28</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -3374,19 +3326,19 @@
         <v>7.3447999999999999E-2</v>
       </c>
       <c r="O44">
+        <f t="shared" si="4"/>
+        <v>3.6229499999999998E-2</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="3"/>
+        <v>5.1860999999999997E-2</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="5"/>
-        <v>3.6229499999999998E-2</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="4"/>
-        <v>5.1860999999999997E-2</v>
-      </c>
-      <c r="Q44">
+        <v>5.4734000000000005E-2</v>
+      </c>
+      <c r="R44">
         <f t="shared" si="6"/>
-        <v>5.4734000000000005E-2</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="7"/>
         <v>4.6152499999999999E-2</v>
       </c>
     </row>
@@ -3403,9 +3355,8 @@
       <c r="D45" s="3">
         <v>19</v>
       </c>
-      <c r="E45" s="11">
-        <f t="shared" si="3"/>
-        <v>29.418130130000002</v>
+      <c r="E45" s="18">
+        <v>2</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
@@ -3435,19 +3386,19 @@
         <v>3.0689999999999999E-2</v>
       </c>
       <c r="O45">
+        <f t="shared" si="4"/>
+        <v>-7.6849499999999987E-2</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="3"/>
+        <v>2.0375499999999998E-2</v>
+      </c>
+      <c r="Q45">
         <f t="shared" si="5"/>
-        <v>-7.6849499999999987E-2</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="4"/>
-        <v>2.0375499999999998E-2</v>
-      </c>
-      <c r="Q45">
+        <v>-7.6815500000000009E-2</v>
+      </c>
+      <c r="R45">
         <f t="shared" si="6"/>
-        <v>-7.6815500000000009E-2</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="7"/>
         <v>-7.0218000000000003E-2</v>
       </c>
     </row>
@@ -3464,9 +3415,8 @@
       <c r="D46" s="3">
         <v>18</v>
       </c>
-      <c r="E46" s="11">
-        <f t="shared" si="3"/>
-        <v>26.201286164999999</v>
+      <c r="E46" s="18">
+        <v>3</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -3496,19 +3446,19 @@
         <v>-2.0787E-2</v>
       </c>
       <c r="O46">
+        <f t="shared" si="4"/>
+        <v>0.13872950000000001</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="3"/>
+        <v>-3.7075999999999998E-2</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="5"/>
-        <v>0.13872950000000001</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="4"/>
-        <v>-3.7075999999999998E-2</v>
-      </c>
-      <c r="Q46">
+        <v>3.7094500000000002E-2</v>
+      </c>
+      <c r="R46">
         <f t="shared" si="6"/>
-        <v>3.7094500000000002E-2</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="7"/>
         <v>0.105819</v>
       </c>
     </row>
@@ -3525,9 +3475,8 @@
       <c r="D47" s="3">
         <v>21</v>
       </c>
-      <c r="E47" s="11">
-        <f t="shared" si="3"/>
-        <v>32.849809</v>
+      <c r="E47" s="18">
+        <v>1</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3557,19 +3506,19 @@
         <v>-2.4535000000000001E-2</v>
       </c>
       <c r="O47">
+        <f t="shared" si="4"/>
+        <v>-9.6784000000000009E-2</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="3"/>
+        <v>-5.0932499999999999E-2</v>
+      </c>
+      <c r="Q47">
         <f t="shared" si="5"/>
-        <v>-9.6784000000000009E-2</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="4"/>
-        <v>-5.0932499999999999E-2</v>
-      </c>
-      <c r="Q47">
+        <v>8.2685499999999995E-2</v>
+      </c>
+      <c r="R47">
         <f t="shared" si="6"/>
-        <v>8.2685499999999995E-2</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="7"/>
         <v>0.17643049999999999</v>
       </c>
     </row>
@@ -3586,9 +3535,8 @@
       <c r="D48" s="3">
         <v>21</v>
       </c>
-      <c r="E48" s="11">
-        <f t="shared" si="3"/>
-        <v>29.547309888000001</v>
+      <c r="E48" s="18">
+        <v>12</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -3618,19 +3566,19 @@
         <v>0.11176899999999999</v>
       </c>
       <c r="O48">
+        <f t="shared" si="4"/>
+        <v>0.16839500000000002</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="3"/>
+        <v>0.10262099999999999</v>
+      </c>
+      <c r="Q48">
         <f t="shared" si="5"/>
-        <v>0.16839500000000002</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="4"/>
-        <v>0.10262099999999999</v>
-      </c>
-      <c r="Q48">
+        <v>9.5372499999999999E-2</v>
+      </c>
+      <c r="R48">
         <f t="shared" si="6"/>
-        <v>9.5372499999999999E-2</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="7"/>
         <v>-5.3498499999999997E-2</v>
       </c>
     </row>
@@ -3647,9 +3595,8 @@
       <c r="D49" s="3">
         <v>19</v>
       </c>
-      <c r="E49" s="11">
-        <f t="shared" si="3"/>
-        <v>27.887442010999997</v>
+      <c r="E49" s="18">
+        <v>8</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
@@ -3679,19 +3626,19 @@
         <v>5.8465000000000003E-2</v>
       </c>
       <c r="O49">
+        <f t="shared" si="4"/>
+        <v>0.1037415</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="3"/>
+        <v>3.4941E-2</v>
+      </c>
+      <c r="Q49">
         <f t="shared" si="5"/>
-        <v>0.1037415</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="4"/>
-        <v>3.4941E-2</v>
-      </c>
-      <c r="Q49">
+        <v>0.14825250000000001</v>
+      </c>
+      <c r="R49">
         <f t="shared" si="6"/>
-        <v>0.14825250000000001</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="7"/>
         <v>6.0884000000000008E-2</v>
       </c>
     </row>
@@ -3708,9 +3655,8 @@
       <c r="D50" s="3">
         <v>19</v>
       </c>
-      <c r="E50" s="11">
-        <f t="shared" si="3"/>
-        <v>27.222968737000002</v>
+      <c r="E50" s="18">
+        <v>8</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
@@ -3740,19 +3686,19 @@
         <v>0.23819199999999999</v>
       </c>
       <c r="O50">
+        <f t="shared" si="4"/>
+        <v>8.7649000000000005E-2</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="3"/>
+        <v>0.23391849999999997</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="5"/>
-        <v>8.7649000000000005E-2</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="4"/>
-        <v>0.23391849999999997</v>
-      </c>
-      <c r="Q50">
+        <v>-1.0112000000000001E-2</v>
+      </c>
+      <c r="R50">
         <f t="shared" si="6"/>
-        <v>-1.0112000000000001E-2</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="7"/>
         <v>9.77885E-2</v>
       </c>
     </row>
@@ -3769,9 +3715,8 @@
       <c r="D51" s="3">
         <v>21</v>
       </c>
-      <c r="E51" s="11">
-        <f t="shared" si="3"/>
-        <v>30.397520628000002</v>
+      <c r="E51" s="18">
+        <v>0</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
@@ -3801,19 +3746,19 @@
         <v>1.9552E-2</v>
       </c>
       <c r="O51">
+        <f t="shared" si="4"/>
+        <v>6.2715999999999994E-2</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="3"/>
+        <v>-2.4447000000000003E-2</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="5"/>
-        <v>6.2715999999999994E-2</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="4"/>
-        <v>-2.4447000000000003E-2</v>
-      </c>
-      <c r="Q51">
+        <v>0.17668149999999999</v>
+      </c>
+      <c r="R51">
         <f t="shared" si="6"/>
-        <v>0.17668149999999999</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="7"/>
         <v>7.2880500000000001E-2</v>
       </c>
     </row>
@@ -3830,9 +3775,8 @@
       <c r="D52" s="3">
         <v>18</v>
       </c>
-      <c r="E52" s="11">
-        <f t="shared" si="3"/>
-        <v>26.267269286999998</v>
+      <c r="E52" s="18">
+        <v>0</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -3862,19 +3806,19 @@
         <v>6.6969999999999998E-3</v>
       </c>
       <c r="O52">
+        <f t="shared" si="4"/>
+        <v>-6.5981499999999998E-2</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="3"/>
+        <v>-1.7991500000000001E-2</v>
+      </c>
+      <c r="Q52">
         <f t="shared" si="5"/>
-        <v>-6.5981499999999998E-2</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="4"/>
-        <v>-1.7991500000000001E-2</v>
-      </c>
-      <c r="Q52">
+        <v>-0.104079</v>
+      </c>
+      <c r="R52">
         <f t="shared" si="6"/>
-        <v>-0.104079</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="7"/>
         <v>-0.16324549999999999</v>
       </c>
     </row>
@@ -3891,9 +3835,8 @@
       <c r="D53" s="3">
         <v>20</v>
       </c>
-      <c r="E53" s="11">
-        <f t="shared" si="3"/>
-        <v>27.722397643000001</v>
+      <c r="E53" s="18">
+        <v>24</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
@@ -3923,19 +3866,19 @@
         <v>4.1669999999999997E-3</v>
       </c>
       <c r="O53">
+        <f t="shared" si="4"/>
+        <v>-2.5538999999999999E-2</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="3"/>
+        <v>-1.711E-2</v>
+      </c>
+      <c r="Q53">
         <f t="shared" si="5"/>
-        <v>-2.5538999999999999E-2</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="4"/>
-        <v>-1.711E-2</v>
-      </c>
-      <c r="Q53">
+        <v>0.21639549999999999</v>
+      </c>
+      <c r="R53">
         <f t="shared" si="6"/>
-        <v>0.21639549999999999</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="7"/>
         <v>0.136488</v>
       </c>
     </row>
@@ -3952,9 +3895,8 @@
       <c r="D54" s="3">
         <v>21</v>
       </c>
-      <c r="E54" s="11">
-        <f t="shared" si="3"/>
-        <v>33.399481039999998</v>
+      <c r="E54" s="18">
+        <v>0</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -3984,19 +3926,19 @@
         <v>8.0058000000000004E-2</v>
       </c>
       <c r="O54">
+        <f t="shared" si="4"/>
+        <v>2.03115E-2</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="3"/>
+        <v>6.5834000000000004E-2</v>
+      </c>
+      <c r="Q54">
         <f t="shared" si="5"/>
-        <v>2.03115E-2</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="4"/>
-        <v>6.5834000000000004E-2</v>
-      </c>
-      <c r="Q54">
+        <v>0.1026715</v>
+      </c>
+      <c r="R54">
         <f t="shared" si="6"/>
-        <v>0.1026715</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="7"/>
         <v>2.2243500000000003E-2</v>
       </c>
     </row>
@@ -4013,9 +3955,8 @@
       <c r="D55" s="3">
         <v>20</v>
       </c>
-      <c r="E55" s="11">
-        <f t="shared" si="3"/>
-        <v>28.407680970999998</v>
+      <c r="E55" s="18">
+        <v>50</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
@@ -4045,19 +3986,19 @@
         <v>-2.7099999999999997E-4</v>
       </c>
       <c r="O55">
+        <f t="shared" si="4"/>
+        <v>2.0958499999999998E-2</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="3"/>
+        <v>2.7310999999999998E-2</v>
+      </c>
+      <c r="Q55">
         <f t="shared" si="5"/>
-        <v>2.0958499999999998E-2</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="4"/>
-        <v>2.7310999999999998E-2</v>
-      </c>
-      <c r="Q55">
+        <v>-0.1577345</v>
+      </c>
+      <c r="R55">
         <f t="shared" si="6"/>
-        <v>-0.1577345</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="7"/>
         <v>-0.2337545</v>
       </c>
     </row>
@@ -4074,9 +4015,8 @@
       <c r="D56" s="3">
         <v>19</v>
       </c>
-      <c r="E56" s="11">
-        <f t="shared" si="3"/>
-        <v>27.538233206000001</v>
+      <c r="E56" s="18">
+        <v>32</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -4106,19 +4046,19 @@
         <v>6.0911E-2</v>
       </c>
       <c r="O56">
+        <f t="shared" si="4"/>
+        <v>4.812799999999999E-2</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="3"/>
+        <v>6.3338000000000005E-2</v>
+      </c>
+      <c r="Q56">
         <f t="shared" si="5"/>
-        <v>4.812799999999999E-2</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="4"/>
-        <v>6.3338000000000005E-2</v>
-      </c>
-      <c r="Q56">
+        <v>0.16419149999999999</v>
+      </c>
+      <c r="R56">
         <f t="shared" si="6"/>
-        <v>0.16419149999999999</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="7"/>
         <v>0.1382755</v>
       </c>
     </row>
@@ -4135,9 +4075,8 @@
       <c r="D57" s="3">
         <v>19</v>
       </c>
-      <c r="E57" s="11">
-        <f t="shared" si="3"/>
-        <v>28.547210065000002</v>
+      <c r="E57" s="18">
+        <v>0</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
@@ -4167,19 +4106,19 @@
         <v>-7.2345000000000007E-2</v>
       </c>
       <c r="O57">
+        <f t="shared" si="4"/>
+        <v>-3.5323E-2</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="3"/>
+        <v>-7.2483000000000006E-2</v>
+      </c>
+      <c r="Q57">
         <f t="shared" si="5"/>
-        <v>-3.5323E-2</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="4"/>
-        <v>-7.2483000000000006E-2</v>
-      </c>
-      <c r="Q57">
+        <v>-0.16868549999999999</v>
+      </c>
+      <c r="R57">
         <f t="shared" si="6"/>
-        <v>-0.16868549999999999</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="7"/>
         <v>-0.13276350000000001</v>
       </c>
     </row>
@@ -4196,9 +4135,8 @@
       <c r="D58" s="3">
         <v>20</v>
       </c>
-      <c r="E58" s="11">
-        <f t="shared" si="3"/>
-        <v>25.649759837000001</v>
+      <c r="E58" s="18">
+        <v>32</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -4228,19 +4166,19 @@
         <v>4.8473000000000002E-2</v>
       </c>
       <c r="O58">
+        <f t="shared" si="4"/>
+        <v>4.5471999999999999E-2</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="3"/>
+        <v>6.9178000000000003E-2</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="5"/>
-        <v>4.5471999999999999E-2</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="4"/>
-        <v>6.9178000000000003E-2</v>
-      </c>
-      <c r="Q58">
+        <v>0.108737</v>
+      </c>
+      <c r="R58">
         <f t="shared" si="6"/>
-        <v>0.108737</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="7"/>
         <v>3.3605500000000003E-2</v>
       </c>
     </row>
@@ -4257,9 +4195,8 @@
       <c r="D59" s="3">
         <v>19</v>
       </c>
-      <c r="E59" s="11">
-        <f t="shared" si="3"/>
-        <v>28.222083269999999</v>
+      <c r="E59" s="18">
+        <v>42</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
@@ -4289,19 +4226,19 @@
         <v>1.6598999999999999E-2</v>
       </c>
       <c r="O59">
+        <f t="shared" si="4"/>
+        <v>2.0188000000000001E-2</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="3"/>
+        <v>-1.33305E-2</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="5"/>
-        <v>2.0188000000000001E-2</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="4"/>
-        <v>-1.33305E-2</v>
-      </c>
-      <c r="Q59">
+        <v>4.2142499999999999E-2</v>
+      </c>
+      <c r="R59">
         <f t="shared" si="6"/>
-        <v>4.2142499999999999E-2</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="7"/>
         <v>-4.95115E-2</v>
       </c>
     </row>
@@ -4318,9 +4255,8 @@
       <c r="D60" s="3">
         <v>22</v>
       </c>
-      <c r="E60" s="11">
-        <f t="shared" si="3"/>
-        <v>31.075425877000001</v>
+      <c r="E60" s="18">
+        <v>4</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -4350,19 +4286,19 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="O60">
+        <f t="shared" si="4"/>
+        <v>-2.2508999999999994E-2</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="3"/>
+        <v>1.7735499999999998E-2</v>
+      </c>
+      <c r="Q60">
         <f t="shared" si="5"/>
-        <v>-2.2508999999999994E-2</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="4"/>
-        <v>1.7735499999999998E-2</v>
-      </c>
-      <c r="Q60">
+        <v>7.3749499999999996E-2</v>
+      </c>
+      <c r="R60">
         <f t="shared" si="6"/>
-        <v>7.3749499999999996E-2</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="7"/>
         <v>0.123367</v>
       </c>
     </row>
@@ -4379,9 +4315,8 @@
       <c r="D61" s="3">
         <v>18</v>
       </c>
-      <c r="E61" s="11">
-        <f t="shared" si="3"/>
-        <v>30.455561510000003</v>
+      <c r="E61" s="18">
+        <v>25</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -4411,19 +4346,19 @@
         <v>0.19259299999999999</v>
       </c>
       <c r="O61">
+        <f t="shared" si="4"/>
+        <v>0.23388150000000002</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="3"/>
+        <v>0.14033000000000001</v>
+      </c>
+      <c r="Q61">
         <f t="shared" si="5"/>
-        <v>0.23388150000000002</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="4"/>
-        <v>0.14033000000000001</v>
-      </c>
-      <c r="Q61">
+        <v>9.0142E-2</v>
+      </c>
+      <c r="R61">
         <f t="shared" si="6"/>
-        <v>9.0142E-2</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="7"/>
         <v>0.14987149999999999</v>
       </c>
     </row>
@@ -4440,9 +4375,8 @@
       <c r="D62" s="3">
         <v>32</v>
       </c>
-      <c r="E62" s="11">
-        <f t="shared" si="3"/>
-        <v>41.590708190000001</v>
+      <c r="E62" s="18">
+        <v>0</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
@@ -4472,19 +4406,19 @@
         <v>-6.5240999999999993E-2</v>
       </c>
       <c r="O62">
+        <f t="shared" si="4"/>
+        <v>-2.8428500000000002E-2</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="3"/>
+        <v>-6.3338999999999993E-2</v>
+      </c>
+      <c r="Q62">
         <f t="shared" si="5"/>
-        <v>-2.8428500000000002E-2</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="4"/>
-        <v>-6.3338999999999993E-2</v>
-      </c>
-      <c r="Q62">
+        <v>-0.12122250000000001</v>
+      </c>
+      <c r="R62">
         <f t="shared" si="6"/>
-        <v>-0.12122250000000001</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="7"/>
         <v>-9.6172999999999995E-2</v>
       </c>
     </row>
@@ -4501,9 +4435,8 @@
       <c r="D63" s="3">
         <v>20</v>
       </c>
-      <c r="E63" s="11">
-        <f t="shared" si="3"/>
-        <v>28.071761545000001</v>
+      <c r="E63" s="18">
+        <v>19</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
@@ -4533,19 +4466,19 @@
         <v>-1.9386E-2</v>
       </c>
       <c r="O63">
+        <f t="shared" si="4"/>
+        <v>-3.1807500000000002E-2</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="3"/>
+        <v>4.6154999999999998E-3</v>
+      </c>
+      <c r="Q63">
         <f t="shared" si="5"/>
-        <v>-3.1807500000000002E-2</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="4"/>
-        <v>4.6154999999999998E-3</v>
-      </c>
-      <c r="Q63">
+        <v>6.5114499999999992E-2</v>
+      </c>
+      <c r="R63">
         <f t="shared" si="6"/>
-        <v>6.5114499999999992E-2</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="7"/>
         <v>0.15516199999999999</v>
       </c>
     </row>
@@ -4562,9 +4495,8 @@
       <c r="D64" s="3">
         <v>20</v>
       </c>
-      <c r="E64" s="11">
-        <f t="shared" si="3"/>
-        <v>27.342681935999998</v>
+      <c r="E64" s="18">
+        <v>55</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -4594,19 +4526,19 @@
         <v>8.5773000000000002E-2</v>
       </c>
       <c r="O64">
+        <f t="shared" si="4"/>
+        <v>0.1047535</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="3"/>
+        <v>5.3642500000000003E-2</v>
+      </c>
+      <c r="Q64">
         <f t="shared" si="5"/>
-        <v>0.1047535</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="4"/>
-        <v>5.3642500000000003E-2</v>
-      </c>
-      <c r="Q64">
+        <v>0.14030500000000001</v>
+      </c>
+      <c r="R64">
         <f t="shared" si="6"/>
-        <v>0.14030500000000001</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="7"/>
         <v>-6.7985000000000004E-2</v>
       </c>
     </row>
@@ -4623,9 +4555,8 @@
       <c r="D65" s="3">
         <v>18</v>
       </c>
-      <c r="E65" s="11">
-        <f t="shared" si="3"/>
-        <v>24.414532676</v>
+      <c r="E65" s="18">
+        <v>3</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -4655,19 +4586,19 @@
         <v>6.8507999999999999E-2</v>
       </c>
       <c r="O65">
+        <f t="shared" si="4"/>
+        <v>2.034E-2</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="3"/>
+        <v>4.8063000000000002E-2</v>
+      </c>
+      <c r="Q65">
         <f t="shared" si="5"/>
-        <v>2.034E-2</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="4"/>
-        <v>4.8063000000000002E-2</v>
-      </c>
-      <c r="Q65">
+        <v>0.10000450000000001</v>
+      </c>
+      <c r="R65">
         <f t="shared" si="6"/>
-        <v>0.10000450000000001</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="7"/>
         <v>0.12936</v>
       </c>
     </row>
@@ -4684,9 +4615,8 @@
       <c r="D66" s="3">
         <v>35</v>
       </c>
-      <c r="E66" s="11">
-        <f t="shared" si="3"/>
-        <v>42.593527115999997</v>
+      <c r="E66" s="18">
+        <v>0</v>
       </c>
       <c r="F66" s="2">
         <v>1</v>
@@ -4716,19 +4646,19 @@
         <v>4.7199999999999998E-4</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O71" si="8">AVERAGE(G66,H66)</f>
+        <f t="shared" ref="O66:O71" si="7">AVERAGE(G66,H66)</f>
         <v>-9.7470000000000005E-3</v>
       </c>
       <c r="P66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.8475000000000002E-3</v>
       </c>
       <c r="Q66">
+        <f t="shared" si="5"/>
+        <v>0.2201245</v>
+      </c>
+      <c r="R66">
         <f t="shared" si="6"/>
-        <v>0.2201245</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="7"/>
         <v>0.1681745</v>
       </c>
     </row>
@@ -4745,9 +4675,8 @@
       <c r="D67" s="3">
         <v>27</v>
       </c>
-      <c r="E67" s="11">
-        <f t="shared" ref="E67:E71" si="9">SUM(A67,B67,D67)</f>
-        <v>33.086239947000003</v>
+      <c r="E67" s="18">
+        <v>43</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
@@ -4777,19 +4706,19 @@
         <v>7.8109999999999999E-2</v>
       </c>
       <c r="O67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12726299999999999</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P71" si="10">AVERAGE(M67,N67)</f>
+        <f t="shared" ref="P67:P71" si="8">AVERAGE(M67,N67)</f>
         <v>6.7236500000000005E-2</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q71" si="11">AVERAGE(K67,L67)</f>
+        <f t="shared" ref="Q67:Q71" si="9">AVERAGE(K67,L67)</f>
         <v>1.07595E-2</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R71" si="12">AVERAGE(I67,J67)</f>
+        <f t="shared" ref="R67:R71" si="10">AVERAGE(I67,J67)</f>
         <v>-1.8960499999999998E-2</v>
       </c>
     </row>
@@ -4806,9 +4735,8 @@
       <c r="D68" s="3">
         <v>21</v>
       </c>
-      <c r="E68" s="11">
-        <f t="shared" si="9"/>
-        <v>28.081494340999999</v>
+      <c r="E68" s="18">
+        <v>42</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
@@ -4838,19 +4766,19 @@
         <v>3.7670000000000002E-2</v>
       </c>
       <c r="O68">
+        <f t="shared" si="7"/>
+        <v>0.25682749999999999</v>
+      </c>
+      <c r="P68">
         <f t="shared" si="8"/>
-        <v>0.25682749999999999</v>
-      </c>
-      <c r="P68">
+        <v>-1.8767499999999996E-2</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="9"/>
+        <v>-5.6598999999999997E-2</v>
+      </c>
+      <c r="R68">
         <f t="shared" si="10"/>
-        <v>-1.8767499999999996E-2</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="11"/>
-        <v>-5.6598999999999997E-2</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="12"/>
         <v>0.17669699999999999</v>
       </c>
     </row>
@@ -4867,9 +4795,8 @@
       <c r="D69" s="3">
         <v>22</v>
       </c>
-      <c r="E69" s="11">
-        <f t="shared" si="9"/>
-        <v>32.586067829999998</v>
+      <c r="E69" s="18">
+        <v>35</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
@@ -4899,19 +4826,19 @@
         <v>6.2628000000000003E-2</v>
       </c>
       <c r="O69">
+        <f t="shared" si="7"/>
+        <v>-6.6050499999999998E-2</v>
+      </c>
+      <c r="P69">
         <f t="shared" si="8"/>
-        <v>-6.6050499999999998E-2</v>
-      </c>
-      <c r="P69">
+        <v>1.1983000000000001E-2</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="9"/>
+        <v>-7.7405499999999988E-2</v>
+      </c>
+      <c r="R69">
         <f t="shared" si="10"/>
-        <v>1.1983000000000001E-2</v>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="11"/>
-        <v>-7.7405499999999988E-2</v>
-      </c>
-      <c r="R69">
-        <f t="shared" si="12"/>
         <v>-7.613049999999999E-2</v>
       </c>
     </row>
@@ -4928,9 +4855,8 @@
       <c r="D70" s="3">
         <v>23</v>
       </c>
-      <c r="E70" s="11">
-        <f t="shared" si="9"/>
-        <v>34.051443660000004</v>
+      <c r="E70" s="18">
+        <v>9</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
@@ -4960,19 +4886,19 @@
         <v>-5.527E-2</v>
       </c>
       <c r="O70">
+        <f t="shared" si="7"/>
+        <v>-0.23227700000000001</v>
+      </c>
+      <c r="P70">
         <f t="shared" si="8"/>
-        <v>-0.23227700000000001</v>
-      </c>
-      <c r="P70">
+        <v>-0.110206</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="9"/>
+        <v>-4.8635500000000005E-2</v>
+      </c>
+      <c r="R70">
         <f t="shared" si="10"/>
-        <v>-0.110206</v>
-      </c>
-      <c r="Q70">
-        <f t="shared" si="11"/>
-        <v>-4.8635500000000005E-2</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="12"/>
         <v>-2.8743999999999999E-2</v>
       </c>
     </row>
@@ -4980,7 +4906,7 @@
       <c r="A71" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="12">
         <v>6.4567896820000001</v>
       </c>
       <c r="C71" s="4">
@@ -4989,9 +4915,8 @@
       <c r="D71" s="7">
         <v>19</v>
       </c>
-      <c r="E71" s="12">
-        <f t="shared" si="9"/>
-        <v>25.456789682</v>
+      <c r="E71" s="18">
+        <v>26</v>
       </c>
       <c r="F71" s="5">
         <v>1</v>
@@ -5021,19 +4946,19 @@
         <v>0.190882</v>
       </c>
       <c r="O71" s="6">
+        <f t="shared" si="7"/>
+        <v>0.16444400000000001</v>
+      </c>
+      <c r="P71" s="6">
         <f t="shared" si="8"/>
-        <v>0.16444400000000001</v>
-      </c>
-      <c r="P71" s="6">
+        <v>0.161913</v>
+      </c>
+      <c r="Q71" s="6">
+        <f t="shared" si="9"/>
+        <v>-8.0625000000000002E-3</v>
+      </c>
+      <c r="R71" s="6">
         <f t="shared" si="10"/>
-        <v>0.161913</v>
-      </c>
-      <c r="Q71" s="6">
-        <f t="shared" si="11"/>
-        <v>-8.0625000000000002E-3</v>
-      </c>
-      <c r="R71" s="6">
-        <f t="shared" si="12"/>
         <v>1.48185E-2</v>
       </c>
     </row>
